--- a/sake.xlsx
+++ b/sake.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-10780" yWindow="-28800" windowWidth="25600" windowHeight="28360" tabRatio="500"/>
+    <workbookView xWindow="-10785" yWindow="-28800" windowWidth="25605" windowHeight="21840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="231">
   <si>
     <t>## 北海道地方</t>
   </si>
@@ -644,13 +644,154 @@
   <si>
     <t>## 関東地方</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>seeds.rb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.sudohonke.co.jp/</t>
+  </si>
+  <si>
+    <t>http://www.rakuten.ne.jp/gold/sudohonke/shop/images/lBnr02.jpg</t>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.yajima-jizake.co.jp/kuramoto/image/img0021.jpg</t>
+  </si>
+  <si>
+    <t>http://www.iwaikotobuki.com/data/iwaikotobuki/_/70726f647563742f32303133313232365f3138313435372e6a7067003235300000660066.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kanedai.com/co4/files/ssc_product/image/432_0_300.jpg</t>
+  </si>
+  <si>
+    <t>http://www.sawanoi-sake.com/</t>
+  </si>
+  <si>
+    <t>https://www.iy-net.jp/sys_image/498/156/311/532/4/001_4981563115324.jpg</t>
+  </si>
+  <si>
+    <t>http://izumibashi.com/</t>
+  </si>
+  <si>
+    <t>http://izumibashi.com/wordpress/wp-content/uploads/product01.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.asahi-shuzo.co.jp/brand/kubota.html</t>
+  </si>
+  <si>
+    <t>http://www.asahi-shuzo.co.jp/brand/images/kubota_namagenshu.jpg</t>
+  </si>
+  <si>
+    <t>http://www.masuizumi.co.jp/item/assets_c/2011/12/02-thumb-autox300-4.jpg</t>
+  </si>
+  <si>
+    <t>http://www.tengumai.co.jp/</t>
+  </si>
+  <si>
+    <t>http://www.tengumai.co.jp/images/product/ginjo/ph_ginjo_007.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kokuryu.co.jp/</t>
+  </si>
+  <si>
+    <t>http://www.kokuryu.co.jp/share/imgs/bottle_tsu1-720.jpg</t>
+  </si>
+  <si>
+    <t>http://thumbnail.image.rakuten.co.jp/@0_mall/koshu-wine/cabinet/wine02/4997728000183.jpg</t>
+  </si>
+  <si>
+    <t>http://www.masumi.jp/img_server/co_img1/sakemasumi/item/110_k01l.jpg</t>
+  </si>
+  <si>
+    <t>http://www.michisakari.com/pdf/meijo720.jpg</t>
+  </si>
+  <si>
+    <t>https://www.google.co.jp/url?sa=i&amp;rct=j&amp;q=&amp;esrc=s&amp;source=images&amp;cd=&amp;cad=rja&amp;uact=8&amp;docid=KR1M-t1kq0kSyM&amp;tbnid=_tqboaErn5ZaxM:&amp;ved=0CAIQjBw&amp;url=http%3A%2F%2Fwww.sasas.jp%2Fgoods_image%2FA3628_I1.jpg&amp;ei=jbo6U7SZI8efkgWGw4DYCg&amp;bvm=bv.63934634,d.dGI&amp;psig=AFQjCNEJl9BxmsDlcYH5Agu0uY1ZbnUNUQ&amp;ust=1396444166502746</t>
+  </si>
+  <si>
+    <t>http://kuheiji.co.jp/brand/img/img125u81353_1.jpg</t>
+  </si>
+  <si>
+    <t>http://syusendo.ir.shopserve.jp/pic-labo/mienisiki_04.jpg</t>
+  </si>
+  <si>
+    <t>http://members.e-omi.ne.jp/eo4224395/shop/img/019-1.jpg</t>
+  </si>
+  <si>
+    <t>http://www.emono1.jp/img/nandai/20120106144623_img1_75.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://723papa43.blog.ocn.ne.jp/blog/images/2013/04/14/img_1427.jpg</t>
+  </si>
+  <si>
+    <t>http://www.abetaya.com/hp/yutyou/kaze01.JPG</t>
+  </si>
+  <si>
+    <t>http://www.emono1.jp/img/nandai/20120106143130_img1_30.jpg</t>
+  </si>
+  <si>
+    <t>http://takaisami.co.jp/files/content_type/type100/74/p/201303100025271946.jpg</t>
+  </si>
+  <si>
+    <t>http://www.sasas.jp/goods_image/A3484_I3.jpg</t>
+  </si>
+  <si>
+    <t>http://shop.gnavi.co.jp/iimg/s-/s-hisamoto/img/157858/goodsimage157858.jpg</t>
+  </si>
+  <si>
+    <t>http://thumbnail.image.rakuten.co.jp/@0_mall/skysake/cabinet/01022418/nihonsyu-t/taketuru/img62252942.jpg</t>
+  </si>
+  <si>
+    <t>http://www1.ttcn.ne.jp/kamasuya/PPC/miyosi-ws25.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://pds2.exblog.jp/pds/1/201112/31/38/e0214638_1330276.jpg</t>
+  </si>
+  <si>
+    <t>http://www.emono1.jp/img/kamadas/20111205164023_img1_43.jpg</t>
+  </si>
+  <si>
+    <t>http://thumbnail.image.rakuten.co.jp/@0_mall/sakesakura/cabinet/nkoku/minami_jg1800.jpg</t>
+  </si>
+  <si>
+    <t>http://www.miyamizu.jp/site_data/cabinet/00002844_photo1.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.sakenomise.com/uploads/%E6%9D%B1%E4%B8%80%E3%80%80%E7%B4%94%E5%90%9F%E3%80%80%EF%BD%97%EF%BD%85%EF%BD%82%E3%80%80.jpg</t>
+  </si>
+  <si>
+    <t>http://www.64sake.com/img/item/page1_03.jpg</t>
+  </si>
+  <si>
+    <t>http://thumbnail.image.rakuten.co.jp/@0_mall/kenkocom/cabinet/e063/e063376h_l.jpg</t>
+  </si>
+  <si>
+    <t>http://www.takakiya.co.jp/sake_s/img/junmaidaiginjo.jpg</t>
+  </si>
+  <si>
+    <t>http://ic4-a.dena.ne.jp/mi/gr/115/imgr-a.dena.ne.jp/exrb/cb/7/7045879/8/mb/191755272_1.jpg</t>
+  </si>
+  <si>
+    <t>http://www.yukinosake.com/image/label/46-kojujunmai.jpg</t>
+  </si>
+  <si>
+    <t>http://thumbnail.image.rakuten.co.jp/@0_mall/haimurubushi/cabinet/01870722/img57822660.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -678,6 +819,14 @@
       <color theme="11"/>
       <name val="メイリオ"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -710,7 +859,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="141">
+  <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -852,14 +1001,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="141"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="141">
+  <cellStyles count="142">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -930,6 +1081,7 @@
     <cellStyle name="ハイパーリンク" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="141" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -1004,6 +1156,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1331,38 +1488,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A33" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
-    </sheetView>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="6" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="6" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="3" t="s">
+      <c r="G2" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G3" t="str">
@@ -1370,7 +1528,7 @@
         <v>## 北海道地方</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -1386,13 +1544,13 @@
       <c r="F4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <f>"{ tag_type: 'sake', tag: '"&amp;D4&amp;"', search_word: '"&amp;C4&amp;"', name: '"&amp;C4&amp;"', land_of_origin: '"&amp;B4&amp;"' },"</f>
         <v>{ tag_type: 'sake', tag: 'kunimare', search_word: '国稀', name: '国稀', land_of_origin: '北海道' },</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G6" t="str">
@@ -1400,7 +1558,7 @@
         <v>## 東北地方</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -1416,12 +1574,12 @@
       <c r="F7" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <f t="shared" ref="G7:G12" si="0">"{ tag_type: 'sake', tag: '"&amp;D7&amp;"', search_word: '"&amp;C7&amp;"', name: '"&amp;C7&amp;"', land_of_origin: '"&amp;B7&amp;"' },"</f>
         <v>{ tag_type: 'sake', tag: 'densyu', search_word: '田酒', name: '田酒', land_of_origin: '青森県' },</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -1437,12 +1595,12 @@
       <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>{ tag_type: 'sake', tag: 'nanbubijin', search_word: '南部美人', name: '南部美人', land_of_origin: '岩手県' },</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -1458,12 +1616,12 @@
       <c r="F9" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="2" t="str">
+      <c r="G9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>{ tag_type: 'sake', tag: 'urakasumi', search_word: '浦霞', name: '浦霞', land_of_origin: '宮城県' },</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -1479,12 +1637,12 @@
       <c r="F10" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="2" t="str">
+      <c r="G10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>{ tag_type: 'sake', tag: 'shirataki', search_word: '白瀑', name: '白瀑', land_of_origin: '秋田県' },</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1500,12 +1658,12 @@
       <c r="F11" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="2" t="str">
+      <c r="G11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>{ tag_type: 'sake', tag: 'juyondai', search_word: '十四代', name: '十四代', land_of_origin: '山形県' },</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -1521,13 +1679,13 @@
       <c r="F12" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="2" t="str">
+      <c r="G12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>{ tag_type: 'sake', tag: 'hiroki', search_word: '飛露喜', name: '飛露喜', land_of_origin: '福島県' },</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
         <v>185</v>
       </c>
       <c r="G14" t="str">
@@ -1535,7 +1693,7 @@
         <v>## 関東地方</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>29</v>
       </c>
@@ -1545,12 +1703,18 @@
       <c r="D15" t="s">
         <v>126</v>
       </c>
-      <c r="G15" s="2" t="str">
+      <c r="E15" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" t="s">
+        <v>188</v>
+      </c>
+      <c r="G15" s="1" t="str">
         <f t="shared" ref="G15:G21" si="1">"{ tag_type: 'sake', tag: '"&amp;D15&amp;"', search_word: '"&amp;C15&amp;"', name: '"&amp;C15&amp;"', land_of_origin: '"&amp;B15&amp;"' },"</f>
         <v>{ tag_type: 'sake', tag: 'satonohomare', search_word: '郷乃誉', name: '郷乃誉', land_of_origin: '茨城県' },</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>31</v>
       </c>
@@ -1560,12 +1724,18 @@
       <c r="D16" t="s">
         <v>127</v>
       </c>
-      <c r="G16" s="2" t="str">
+      <c r="E16" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{ tag_type: 'sake', tag: 'hououbiden', search_word: '鳳凰美田', name: '鳳凰美田', land_of_origin: '栃木県' },</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>33</v>
       </c>
@@ -1575,12 +1745,18 @@
       <c r="D17" t="s">
         <v>128</v>
       </c>
-      <c r="G17" s="2" t="str">
+      <c r="E17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" t="s">
+        <v>191</v>
+      </c>
+      <c r="G17" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{ tag_type: 'sake', tag: 'ozenoyukidoke', search_word: '尾瀬の雪どけ', name: '尾瀬の雪どけ', land_of_origin: '群馬県' },</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>35</v>
       </c>
@@ -1590,12 +1766,18 @@
       <c r="D18" t="s">
         <v>129</v>
       </c>
-      <c r="G18" s="2" t="str">
+      <c r="E18" t="s">
+        <v>189</v>
+      </c>
+      <c r="F18" t="s">
+        <v>192</v>
+      </c>
+      <c r="G18" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{ tag_type: 'sake', tag: 'shinkame', search_word: '神亀', name: '神亀', land_of_origin: '埼玉県' },</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>37</v>
       </c>
@@ -1605,12 +1787,12 @@
       <c r="D19" t="s">
         <v>130</v>
       </c>
-      <c r="G19" s="2" t="str">
+      <c r="G19" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{ tag_type: 'sake', tag: 'goninnmusume', search_word: '五人娘', name: '五人娘', land_of_origin: '千葉県' },</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>39</v>
       </c>
@@ -1620,12 +1802,18 @@
       <c r="D20" t="s">
         <v>131</v>
       </c>
-      <c r="G20" s="2" t="str">
+      <c r="E20" t="s">
+        <v>193</v>
+      </c>
+      <c r="F20" t="s">
+        <v>194</v>
+      </c>
+      <c r="G20" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{ tag_type: 'sake', tag: 'sawanoi', search_word: '澤乃井', name: '澤乃井', land_of_origin: '東京都' },</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>41</v>
       </c>
@@ -1635,13 +1823,22 @@
       <c r="D21" t="s">
         <v>132</v>
       </c>
-      <c r="G21" s="2" t="str">
+      <c r="E21" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{ tag_type: 'sake', tag: 'izumibashi', search_word: 'いづみ橋', name: 'いづみ橋', land_of_origin: '神奈川県' },</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="3" t="s">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B23" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G23" t="str">
@@ -1649,7 +1846,7 @@
         <v>## 中部地方</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>44</v>
       </c>
@@ -1659,12 +1856,18 @@
       <c r="D24" t="s">
         <v>133</v>
       </c>
-      <c r="G24" s="2" t="str">
+      <c r="E24" t="s">
+        <v>197</v>
+      </c>
+      <c r="F24" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" s="1" t="str">
         <f t="shared" ref="G24:G32" si="2">"{ tag_type: 'sake', tag: '"&amp;D24&amp;"', search_word: '"&amp;C24&amp;"', name: '"&amp;C24&amp;"', land_of_origin: '"&amp;B24&amp;"' },"</f>
         <v>{ tag_type: 'sake', tag: 'kubota', search_word: '久保田', name: '久保田', land_of_origin: '新潟県' },</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>46</v>
       </c>
@@ -1677,12 +1880,15 @@
       <c r="E25" t="s">
         <v>134</v>
       </c>
-      <c r="G25" s="2" t="str">
+      <c r="F25" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" s="1" t="str">
         <f t="shared" si="2"/>
         <v>{ tag_type: 'sake', tag: 'masuizumi', search_word: '満寿泉', name: '満寿泉', land_of_origin: '富山県' },</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>48</v>
       </c>
@@ -1692,12 +1898,18 @@
       <c r="D26" t="s">
         <v>136</v>
       </c>
-      <c r="G26" s="2" t="str">
+      <c r="E26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" s="1" t="str">
         <f t="shared" si="2"/>
         <v>{ tag_type: 'sake', tag: 'tengumai', search_word: '天狗舞', name: '天狗舞', land_of_origin: '石川県' },</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>50</v>
       </c>
@@ -1707,12 +1919,18 @@
       <c r="D27" t="s">
         <v>137</v>
       </c>
-      <c r="G27" s="2" t="str">
+      <c r="E27" t="s">
+        <v>202</v>
+      </c>
+      <c r="F27" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" s="1" t="str">
         <f t="shared" si="2"/>
         <v>{ tag_type: 'sake', tag: 'kokuryu', search_word: '黒龍', name: '黒龍', land_of_origin: '福井県' },</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>52</v>
       </c>
@@ -1725,12 +1943,15 @@
       <c r="E28" t="s">
         <v>143</v>
       </c>
-      <c r="G28" s="2" t="str">
+      <c r="F28" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" s="1" t="str">
         <f t="shared" si="2"/>
         <v>{ tag_type: 'sake', tag: 'shunnoten', search_word: '春鶯囀', name: '春鶯囀', land_of_origin: '山梨県' },</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>54</v>
       </c>
@@ -1743,12 +1964,15 @@
       <c r="E29" t="s">
         <v>140</v>
       </c>
-      <c r="G29" s="2" t="str">
+      <c r="F29" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" s="1" t="str">
         <f t="shared" si="2"/>
         <v>{ tag_type: 'sake', tag: 'masumi', search_word: '真澄', name: '真澄', land_of_origin: '長野県' },</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>56</v>
       </c>
@@ -1761,12 +1985,15 @@
       <c r="E30" t="s">
         <v>138</v>
       </c>
-      <c r="G30" s="2" t="str">
+      <c r="F30" t="s">
+        <v>206</v>
+      </c>
+      <c r="G30" s="1" t="str">
         <f t="shared" si="2"/>
         <v>{ tag_type: 'sake', tag: 'michisakari', search_word: '三千盛', name: '三千盛', land_of_origin: '岐阜県' },</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>57</v>
       </c>
@@ -1779,12 +2006,15 @@
       <c r="E31" t="s">
         <v>145</v>
       </c>
-      <c r="G31" s="2" t="str">
+      <c r="F31" t="s">
+        <v>207</v>
+      </c>
+      <c r="G31" s="1" t="str">
         <f t="shared" si="2"/>
         <v>{ tag_type: 'sake', tag: 'garyubai', search_word: '臥龍梅', name: '臥龍梅', land_of_origin: '静岡県' },</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>59</v>
       </c>
@@ -1797,13 +2027,16 @@
       <c r="E32" t="s">
         <v>147</v>
       </c>
-      <c r="G32" s="2" t="str">
+      <c r="F32" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G32" s="1" t="str">
         <f t="shared" si="2"/>
         <v>{ tag_type: 'sake', tag: 'kuheiji', search_word: '醸し人九平次', name: '醸し人九平次', land_of_origin: '愛知県' },</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="3" t="s">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B34" s="2" t="s">
         <v>61</v>
       </c>
       <c r="G34" t="str">
@@ -1811,7 +2044,7 @@
         <v>## 近畿地方</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>62</v>
       </c>
@@ -1821,12 +2054,15 @@
       <c r="D35" t="s">
         <v>149</v>
       </c>
-      <c r="G35" s="2" t="str">
+      <c r="F35" t="s">
+        <v>209</v>
+      </c>
+      <c r="G35" s="1" t="str">
         <f t="shared" ref="G35:G41" si="3">"{ tag_type: 'sake', tag: '"&amp;D35&amp;"', search_word: '"&amp;C35&amp;"', name: '"&amp;C35&amp;"', land_of_origin: '"&amp;B35&amp;"' },"</f>
         <v>{ tag_type: 'sake', tag: 'mienishiki', search_word: '三重錦', name: '三重錦', land_of_origin: '三重県' },</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>64</v>
       </c>
@@ -1839,12 +2075,15 @@
       <c r="E36" t="s">
         <v>151</v>
       </c>
-      <c r="G36" s="2" t="str">
+      <c r="F36" t="s">
+        <v>210</v>
+      </c>
+      <c r="G36" s="1" t="str">
         <f t="shared" si="3"/>
         <v>{ tag_type: 'sake', tag: 'daijiro', search_word: '大治郎', name: '大治郎', land_of_origin: '滋賀県' },</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>66</v>
       </c>
@@ -1857,12 +2096,15 @@
       <c r="E37" t="s">
         <v>152</v>
       </c>
-      <c r="G37" s="2" t="str">
+      <c r="F37" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G37" s="1" t="str">
         <f t="shared" si="3"/>
         <v>{ tag_type: 'sake', tag: 'tamanohikari', search_word: '玉乃光', name: '玉乃光', land_of_origin: '京都府' },</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>68</v>
       </c>
@@ -1872,12 +2114,15 @@
       <c r="D38" t="s">
         <v>154</v>
       </c>
-      <c r="G38" s="2" t="str">
+      <c r="F38" t="s">
+        <v>212</v>
+      </c>
+      <c r="G38" s="1" t="str">
         <f t="shared" si="3"/>
         <v>{ tag_type: 'sake', tag: 'akishika', search_word: '秋鹿', name: '秋鹿', land_of_origin: '大阪府' },</v>
       </c>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>70</v>
       </c>
@@ -1887,12 +2132,12 @@
       <c r="D39" t="s">
         <v>155</v>
       </c>
-      <c r="G39" s="2" t="str">
+      <c r="G39" s="1" t="str">
         <f t="shared" si="3"/>
         <v>{ tag_type: 'sake', tag: 'kenbishi', search_word: '剣菱', name: '剣菱', land_of_origin: '兵庫県' },</v>
       </c>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>72</v>
       </c>
@@ -1902,12 +2147,15 @@
       <c r="D40" t="s">
         <v>156</v>
       </c>
-      <c r="G40" s="2" t="str">
+      <c r="F40" t="s">
+        <v>213</v>
+      </c>
+      <c r="G40" s="1" t="str">
         <f t="shared" si="3"/>
         <v>{ tag_type: 'sake', tag: 'kazenomori', search_word: '風の森', name: '風の森', land_of_origin: '奈良県' },</v>
       </c>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>74</v>
       </c>
@@ -1920,13 +2168,16 @@
       <c r="E41" t="s">
         <v>158</v>
       </c>
-      <c r="G41" s="2" t="str">
+      <c r="F41" t="s">
+        <v>214</v>
+      </c>
+      <c r="G41" s="1" t="str">
         <f t="shared" si="3"/>
         <v>{ tag_type: 'sake', tag: 'kuroushi', search_word: '黒牛', name: '黒牛', land_of_origin: '和歌山県' },</v>
       </c>
     </row>
-    <row r="43" spans="2:7">
-      <c r="B43" s="3" t="s">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B43" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G43" t="str">
@@ -1934,7 +2185,7 @@
         <v>## 中国地方</v>
       </c>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>77</v>
       </c>
@@ -1947,12 +2198,15 @@
       <c r="E44" t="s">
         <v>159</v>
       </c>
-      <c r="G44" s="2" t="str">
+      <c r="F44" t="s">
+        <v>215</v>
+      </c>
+      <c r="G44" s="1" t="str">
         <f t="shared" ref="G44:G48" si="4">"{ tag_type: 'sake', tag: '"&amp;D44&amp;"', search_word: '"&amp;C44&amp;"', name: '"&amp;C44&amp;"', land_of_origin: '"&amp;B44&amp;"' },"</f>
         <v>{ tag_type: 'sake', tag: 'takaisami', search_word: '鷹勇', name: '鷹勇', land_of_origin: '鳥取県' },</v>
       </c>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>79</v>
       </c>
@@ -1965,12 +2219,15 @@
       <c r="E45" t="s">
         <v>161</v>
       </c>
-      <c r="G45" s="2" t="str">
+      <c r="F45" t="s">
+        <v>216</v>
+      </c>
+      <c r="G45" s="1" t="str">
         <f t="shared" si="4"/>
         <v>{ tag_type: 'sake', tag: 'rihaku', search_word: '李白', name: '李白', land_of_origin: '島根県' },</v>
       </c>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>81</v>
       </c>
@@ -1983,12 +2240,15 @@
       <c r="E46" t="s">
         <v>163</v>
       </c>
-      <c r="G46" s="2" t="str">
+      <c r="F46" t="s">
+        <v>217</v>
+      </c>
+      <c r="G46" s="1" t="str">
         <f t="shared" si="4"/>
         <v>{ tag_type: 'sake', tag: 'sakehitosuji', search_word: '酒一筋', name: '酒一筋', land_of_origin: '岡山県' },</v>
       </c>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>83</v>
       </c>
@@ -1998,12 +2258,15 @@
       <c r="D47" t="s">
         <v>165</v>
       </c>
-      <c r="G47" s="2" t="str">
+      <c r="F47" t="s">
+        <v>218</v>
+      </c>
+      <c r="G47" s="1" t="str">
         <f t="shared" si="4"/>
         <v>{ tag_type: 'sake', tag: 'taketsuru', search_word: '竹鶴', name: '竹鶴', land_of_origin: '広島県' },</v>
       </c>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>85</v>
       </c>
@@ -2016,13 +2279,13 @@
       <c r="E48" t="s">
         <v>166</v>
       </c>
-      <c r="G48" s="2" t="str">
+      <c r="G48" s="1" t="str">
         <f t="shared" si="4"/>
         <v>{ tag_type: 'sake', tag: 'dassai', search_word: '獺祭', name: '獺祭', land_of_origin: '山口県' },</v>
       </c>
     </row>
-    <row r="50" spans="2:7">
-      <c r="B50" s="3" t="s">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B50" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G50" t="str">
@@ -2030,7 +2293,7 @@
         <v>## 四国地方</v>
       </c>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>88</v>
       </c>
@@ -2043,12 +2306,15 @@
       <c r="E51" t="s">
         <v>168</v>
       </c>
-      <c r="G51" s="2" t="str">
+      <c r="F51" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G51" s="1" t="str">
         <f t="shared" ref="G51:G54" si="5">"{ tag_type: 'sake', tag: '"&amp;D51&amp;"', search_word: '"&amp;C51&amp;"', name: '"&amp;C51&amp;"', land_of_origin: '"&amp;B51&amp;"' },"</f>
         <v>{ tag_type: 'sake', tag: 'miyoshikiku', search_word: '三芳菊', name: '三芳菊', land_of_origin: '徳島県' },</v>
       </c>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>90</v>
       </c>
@@ -2058,12 +2324,15 @@
       <c r="D52" t="s">
         <v>170</v>
       </c>
-      <c r="G52" s="2" t="str">
+      <c r="F52" t="s">
+        <v>220</v>
+      </c>
+      <c r="G52" s="1" t="str">
         <f t="shared" si="5"/>
         <v>{ tag_type: 'sake', tag: 'yorokobigaijin', search_word: '悦凱陣', name: '悦凱陣', land_of_origin: '香川県' },</v>
       </c>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>92</v>
       </c>
@@ -2076,12 +2345,15 @@
       <c r="E53" t="s">
         <v>171</v>
       </c>
-      <c r="G53" s="2" t="str">
+      <c r="F53" t="s">
+        <v>221</v>
+      </c>
+      <c r="G53" s="1" t="str">
         <f t="shared" si="5"/>
         <v>{ tag_type: 'sake', tag: 'ishizuchi', search_word: '石鎚', name: '石鎚', land_of_origin: '愛媛県' },</v>
       </c>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>94</v>
       </c>
@@ -2091,13 +2363,16 @@
       <c r="D54" t="s">
         <v>173</v>
       </c>
-      <c r="G54" s="2" t="str">
+      <c r="F54" t="s">
+        <v>222</v>
+      </c>
+      <c r="G54" s="1" t="str">
         <f t="shared" si="5"/>
         <v>{ tag_type: 'sake', tag: 'minami', search_word: '南', name: '南', land_of_origin: '高知県' },</v>
       </c>
     </row>
-    <row r="56" spans="2:7">
-      <c r="B56" s="3" t="s">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B56" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G56" t="str">
@@ -2105,7 +2380,7 @@
         <v>## 九州地方</v>
       </c>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>97</v>
       </c>
@@ -2115,12 +2390,15 @@
       <c r="D57" t="s">
         <v>174</v>
       </c>
-      <c r="G57" s="2" t="str">
+      <c r="F57" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G57" s="1" t="str">
         <f t="shared" ref="G57:G64" si="6">"{ tag_type: 'sake', tag: '"&amp;D57&amp;"', search_word: '"&amp;C57&amp;"', name: '"&amp;C57&amp;"', land_of_origin: '"&amp;B57&amp;"' },"</f>
         <v>{ tag_type: 'sake', tag: 'niwanouguisu', search_word: '庭のうぐいす', name: '庭のうぐいす', land_of_origin: '福岡県' },</v>
       </c>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>99</v>
       </c>
@@ -2133,12 +2411,15 @@
       <c r="E58" t="s">
         <v>176</v>
       </c>
-      <c r="G58" s="2" t="str">
+      <c r="F58" t="s">
+        <v>224</v>
+      </c>
+      <c r="G58" s="1" t="str">
         <f t="shared" si="6"/>
         <v>{ tag_type: 'sake', tag: 'azumaichi', search_word: '東一', name: '東一', land_of_origin: '佐賀県' },</v>
       </c>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>101</v>
       </c>
@@ -2151,12 +2432,15 @@
       <c r="E59" t="s">
         <v>177</v>
       </c>
-      <c r="G59" s="2" t="str">
+      <c r="F59" t="s">
+        <v>225</v>
+      </c>
+      <c r="G59" s="1" t="str">
         <f t="shared" si="6"/>
         <v>{ tag_type: 'sake', tag: '64sake', search_word: '六十餘洲', name: '六十餘洲', land_of_origin: '長崎県' },</v>
       </c>
     </row>
-    <row r="60" spans="2:7">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>103</v>
       </c>
@@ -2166,12 +2450,15 @@
       <c r="D60" t="s">
         <v>179</v>
       </c>
-      <c r="G60" s="2" t="str">
+      <c r="F60" t="s">
+        <v>226</v>
+      </c>
+      <c r="G60" s="1" t="str">
         <f t="shared" si="6"/>
         <v>{ tag_type: 'sake', tag: 'reizan', search_word: 'れいざん', name: 'れいざん', land_of_origin: '熊本県' },</v>
       </c>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>105</v>
       </c>
@@ -2184,12 +2471,15 @@
       <c r="E61" t="s">
         <v>180</v>
       </c>
-      <c r="G61" s="2" t="str">
+      <c r="F61" t="s">
+        <v>227</v>
+      </c>
+      <c r="G61" s="1" t="str">
         <f t="shared" si="6"/>
         <v>{ tag_type: 'sake', tag: 'takakiya', search_word: '鷹来屋', name: '鷹来屋', land_of_origin: '大分県' },</v>
       </c>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>107</v>
       </c>
@@ -2199,12 +2489,15 @@
       <c r="D62" t="s">
         <v>182</v>
       </c>
-      <c r="G62" s="2" t="str">
+      <c r="F62" t="s">
+        <v>228</v>
+      </c>
+      <c r="G62" s="1" t="str">
         <f t="shared" si="6"/>
         <v>{ tag_type: 'sake', tag: 'yumenonakamade', search_word: '夢の中まで', name: '夢の中まで', land_of_origin: '宮崎県' },</v>
       </c>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>109</v>
       </c>
@@ -2214,12 +2507,15 @@
       <c r="D63" t="s">
         <v>183</v>
       </c>
-      <c r="G63" s="2" t="str">
+      <c r="F63" t="s">
+        <v>229</v>
+      </c>
+      <c r="G63" s="1" t="str">
         <f t="shared" si="6"/>
         <v>{ tag_type: 'sake', tag: 'kojyu', search_word: '幸寿', name: '幸寿', land_of_origin: '鹿児島県' },</v>
       </c>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>111</v>
       </c>
@@ -2229,15 +2525,25 @@
       <c r="D64" t="s">
         <v>184</v>
       </c>
-      <c r="G64" s="2" t="str">
+      <c r="F64" t="s">
+        <v>230</v>
+      </c>
+      <c r="G64" s="1" t="str">
         <f t="shared" si="6"/>
         <v>{ tag_type: 'sake', tag: 'reimei', search_word: '黎明', name: '黎明', land_of_origin: '沖縄県' },</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="F21" r:id="rId1"/>
+    <hyperlink ref="F32" r:id="rId2" tooltip="http://kuheiji.co.jp/brand/img/img125u81353_1.jpg"/>
+    <hyperlink ref="F37" r:id="rId3"/>
+    <hyperlink ref="F51" r:id="rId4"/>
+    <hyperlink ref="F57" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId6"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/sake.xlsx
+++ b/sake.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-10785" yWindow="-28800" windowWidth="25605" windowHeight="21840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="14840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="232">
   <si>
     <t>## 北海道地方</t>
   </si>
@@ -712,9 +712,6 @@
     <t>http://www.michisakari.com/pdf/meijo720.jpg</t>
   </si>
   <si>
-    <t>https://www.google.co.jp/url?sa=i&amp;rct=j&amp;q=&amp;esrc=s&amp;source=images&amp;cd=&amp;cad=rja&amp;uact=8&amp;docid=KR1M-t1kq0kSyM&amp;tbnid=_tqboaErn5ZaxM:&amp;ved=0CAIQjBw&amp;url=http%3A%2F%2Fwww.sasas.jp%2Fgoods_image%2FA3628_I1.jpg&amp;ei=jbo6U7SZI8efkgWGw4DYCg&amp;bvm=bv.63934634,d.dGI&amp;psig=AFQjCNEJl9BxmsDlcYH5Agu0uY1ZbnUNUQ&amp;ust=1396444166502746</t>
-  </si>
-  <si>
     <t>http://kuheiji.co.jp/brand/img/img125u81353_1.jpg</t>
   </si>
   <si>
@@ -785,6 +782,20 @@
   </si>
   <si>
     <t>http://thumbnail.image.rakuten.co.jp/@0_mall/haimurubushi/cabinet/01870722/img57822660.jpg</t>
+  </si>
+  <si>
+    <t>画像取得</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.sasas.jp/goods_image/A3628_I1.jpg</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -859,7 +870,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="142">
+  <cellStyleXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1002,6 +1013,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1010,7 +1033,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="141"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="142">
+  <cellStyles count="154">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -1153,6 +1176,18 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="153" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1486,20 +1521,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G64"/>
+  <dimension ref="B2:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="6" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="6" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8">
       <c r="B2" s="4" t="s">
         <v>113</v>
       </c>
@@ -1518,8 +1553,11 @@
       <c r="G2" s="4" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H2" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1528,7 +1566,7 @@
         <v>## 北海道地方</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -1548,8 +1586,12 @@
         <f>"{ tag_type: 'sake', tag: '"&amp;D4&amp;"', search_word: '"&amp;C4&amp;"', name: '"&amp;C4&amp;"', land_of_origin: '"&amp;B4&amp;"' },"</f>
         <v>{ tag_type: 'sake', tag: 'kunimare', search_word: '国稀', name: '国稀', land_of_origin: '北海道' },</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H4" s="1" t="str">
+        <f>"curl -o "&amp;D4&amp;".jpg "&amp;F4</f>
+        <v>curl -o kunimare.jpg http://thumbnail.image.rakuten.co.jp/@0_mall/kadenshop/cabinet/wein/tokubetuzyunmaisyu.jpg</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1558,7 +1600,7 @@
         <v>## 東北地方</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -1578,8 +1620,12 @@
         <f t="shared" ref="G7:G12" si="0">"{ tag_type: 'sake', tag: '"&amp;D7&amp;"', search_word: '"&amp;C7&amp;"', name: '"&amp;C7&amp;"', land_of_origin: '"&amp;B7&amp;"' },"</f>
         <v>{ tag_type: 'sake', tag: 'densyu', search_word: '田酒', name: '田酒', land_of_origin: '青森県' },</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H7" s="1" t="str">
+        <f t="shared" ref="H7:H12" si="1">"curl -o "&amp;D7&amp;".jpg "&amp;F7</f>
+        <v>curl -o densyu.jpg http://www.densyu.co.jp/_src/sc1141/web_93c8ef0_8f8395c491e58be18ff8_93l95r8ee6_1800ml817b94a07099.jpg</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -1599,8 +1645,12 @@
         <f t="shared" si="0"/>
         <v>{ tag_type: 'sake', tag: 'nanbubijin', search_word: '南部美人', name: '南部美人', land_of_origin: '岩手県' },</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>curl -o nanbubijin.jpg http://www.nanbubijin.co.jp/wp/wp-content/uploads/2014/01/jyunmai-daiginjyou_item_img.png</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -1620,8 +1670,12 @@
         <f t="shared" si="0"/>
         <v>{ tag_type: 'sake', tag: 'urakasumi', search_word: '浦霞', name: '浦霞', land_of_origin: '宮城県' },</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>curl -o urakasumi.jpg http://www.urakasumi.com/pic/daigin720.jpg</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -1641,8 +1695,12 @@
         <f t="shared" si="0"/>
         <v>{ tag_type: 'sake', tag: 'shirataki', search_word: '白瀑', name: '白瀑', land_of_origin: '秋田県' },</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>curl -o shirataki.jpg http://thumbnail.image.rakuten.co.jp/@0_mall/sakesakura/cabinet/nhokai/shirataki.jpg</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1662,8 +1720,12 @@
         <f t="shared" si="0"/>
         <v>{ tag_type: 'sake', tag: 'juyondai', search_word: '十四代', name: '十四代', land_of_origin: '山形県' },</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>curl -o juyondai.jpg http://www.yukinosake.com/image/sake/juyondaijunmaidaiginjoryusen.jpg</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -1683,8 +1745,12 @@
         <f t="shared" si="0"/>
         <v>{ tag_type: 'sake', tag: 'hiroki', search_word: '飛露喜', name: '飛露喜', land_of_origin: '福島県' },</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>curl -o hiroki.jpg http://shopping.c.yimg.jp/lib/okadayasaketen/hirotm1.jpg</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
       <c r="B14" s="2" t="s">
         <v>185</v>
       </c>
@@ -1693,7 +1759,7 @@
         <v>## 関東地方</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8">
       <c r="B15" t="s">
         <v>29</v>
       </c>
@@ -1710,11 +1776,15 @@
         <v>188</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f t="shared" ref="G15:G21" si="1">"{ tag_type: 'sake', tag: '"&amp;D15&amp;"', search_word: '"&amp;C15&amp;"', name: '"&amp;C15&amp;"', land_of_origin: '"&amp;B15&amp;"' },"</f>
+        <f t="shared" ref="G15:G21" si="2">"{ tag_type: 'sake', tag: '"&amp;D15&amp;"', search_word: '"&amp;C15&amp;"', name: '"&amp;C15&amp;"', land_of_origin: '"&amp;B15&amp;"' },"</f>
         <v>{ tag_type: 'sake', tag: 'satonohomare', search_word: '郷乃誉', name: '郷乃誉', land_of_origin: '茨城県' },</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H15" s="1" t="str">
+        <f t="shared" ref="H15:H21" si="3">"curl -o "&amp;D15&amp;".jpg "&amp;F15</f>
+        <v>curl -o satonohomare.jpg http://www.rakuten.ne.jp/gold/sudohonke/shop/images/lBnr02.jpg</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16" t="s">
         <v>31</v>
       </c>
@@ -1731,11 +1801,15 @@
         <v>190</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ tag_type: 'sake', tag: 'hououbiden', search_word: '鳳凰美田', name: '鳳凰美田', land_of_origin: '栃木県' },</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>curl -o hououbiden.jpg http://www.yajima-jizake.co.jp/kuramoto/image/img0021.jpg</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17" t="s">
         <v>33</v>
       </c>
@@ -1752,11 +1826,15 @@
         <v>191</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ tag_type: 'sake', tag: 'ozenoyukidoke', search_word: '尾瀬の雪どけ', name: '尾瀬の雪どけ', land_of_origin: '群馬県' },</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>curl -o ozenoyukidoke.jpg http://www.iwaikotobuki.com/data/iwaikotobuki/_/70726f647563742f32303133313232365f3138313435372e6a7067003235300000660066.jpg</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18" t="s">
         <v>35</v>
       </c>
@@ -1773,11 +1851,15 @@
         <v>192</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ tag_type: 'sake', tag: 'shinkame', search_word: '神亀', name: '神亀', land_of_origin: '埼玉県' },</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>curl -o shinkame.jpg http://www.kanedai.com/co4/files/ssc_product/image/432_0_300.jpg</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19" t="s">
         <v>37</v>
       </c>
@@ -1788,11 +1870,15 @@
         <v>130</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ tag_type: 'sake', tag: 'goninnmusume', search_word: '五人娘', name: '五人娘', land_of_origin: '千葉県' },</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">curl -o goninnmusume.jpg </v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
       <c r="B20" t="s">
         <v>39</v>
       </c>
@@ -1809,11 +1895,15 @@
         <v>194</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ tag_type: 'sake', tag: 'sawanoi', search_word: '澤乃井', name: '澤乃井', land_of_origin: '東京都' },</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>curl -o sawanoi.jpg https://www.iy-net.jp/sys_image/498/156/311/532/4/001_4981563115324.jpg</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
       <c r="B21" t="s">
         <v>41</v>
       </c>
@@ -1830,14 +1920,18 @@
         <v>196</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ tag_type: 'sake', tag: 'izumibashi', search_word: 'いづみ橋', name: 'いづみ橋', land_of_origin: '神奈川県' },</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>curl -o izumibashi.jpg http://izumibashi.com/wordpress/wp-content/uploads/product01.jpg</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8">
       <c r="B23" s="2" t="s">
         <v>43</v>
       </c>
@@ -1846,7 +1940,7 @@
         <v>## 中部地方</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8">
       <c r="B24" t="s">
         <v>44</v>
       </c>
@@ -1863,11 +1957,15 @@
         <v>198</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f t="shared" ref="G24:G32" si="2">"{ tag_type: 'sake', tag: '"&amp;D24&amp;"', search_word: '"&amp;C24&amp;"', name: '"&amp;C24&amp;"', land_of_origin: '"&amp;B24&amp;"' },"</f>
+        <f t="shared" ref="G24:G32" si="4">"{ tag_type: 'sake', tag: '"&amp;D24&amp;"', search_word: '"&amp;C24&amp;"', name: '"&amp;C24&amp;"', land_of_origin: '"&amp;B24&amp;"' },"</f>
         <v>{ tag_type: 'sake', tag: 'kubota', search_word: '久保田', name: '久保田', land_of_origin: '新潟県' },</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H24" s="1" t="str">
+        <f t="shared" ref="H24:H32" si="5">"curl -o "&amp;D24&amp;".jpg "&amp;F24</f>
+        <v>curl -o kubota.jpg http://www.asahi-shuzo.co.jp/brand/images/kubota_namagenshu.jpg</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
       <c r="B25" t="s">
         <v>46</v>
       </c>
@@ -1884,11 +1982,15 @@
         <v>199</v>
       </c>
       <c r="G25" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ tag_type: 'sake', tag: 'masuizumi', search_word: '満寿泉', name: '満寿泉', land_of_origin: '富山県' },</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>curl -o masuizumi.jpg http://www.masuizumi.co.jp/item/assets_c/2011/12/02-thumb-autox300-4.jpg</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
       <c r="B26" t="s">
         <v>48</v>
       </c>
@@ -1905,11 +2007,15 @@
         <v>201</v>
       </c>
       <c r="G26" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ tag_type: 'sake', tag: 'tengumai', search_word: '天狗舞', name: '天狗舞', land_of_origin: '石川県' },</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>curl -o tengumai.jpg http://www.tengumai.co.jp/images/product/ginjo/ph_ginjo_007.jpg</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
       <c r="B27" t="s">
         <v>50</v>
       </c>
@@ -1926,11 +2032,15 @@
         <v>203</v>
       </c>
       <c r="G27" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ tag_type: 'sake', tag: 'kokuryu', search_word: '黒龍', name: '黒龍', land_of_origin: '福井県' },</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>curl -o kokuryu.jpg http://www.kokuryu.co.jp/share/imgs/bottle_tsu1-720.jpg</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
       <c r="B28" t="s">
         <v>52</v>
       </c>
@@ -1947,11 +2057,15 @@
         <v>204</v>
       </c>
       <c r="G28" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ tag_type: 'sake', tag: 'shunnoten', search_word: '春鶯囀', name: '春鶯囀', land_of_origin: '山梨県' },</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>curl -o shunnoten.jpg http://thumbnail.image.rakuten.co.jp/@0_mall/koshu-wine/cabinet/wine02/4997728000183.jpg</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
       <c r="B29" t="s">
         <v>54</v>
       </c>
@@ -1968,11 +2082,15 @@
         <v>205</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ tag_type: 'sake', tag: 'masumi', search_word: '真澄', name: '真澄', land_of_origin: '長野県' },</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>curl -o masumi.jpg http://www.masumi.jp/img_server/co_img1/sakemasumi/item/110_k01l.jpg</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
       <c r="B30" t="s">
         <v>56</v>
       </c>
@@ -1989,11 +2107,15 @@
         <v>206</v>
       </c>
       <c r="G30" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ tag_type: 'sake', tag: 'michisakari', search_word: '三千盛', name: '三千盛', land_of_origin: '岐阜県' },</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H30" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>curl -o michisakari.jpg http://www.michisakari.com/pdf/meijo720.jpg</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
       <c r="B31" t="s">
         <v>57</v>
       </c>
@@ -2006,15 +2128,19 @@
       <c r="E31" t="s">
         <v>145</v>
       </c>
-      <c r="F31" t="s">
-        <v>207</v>
+      <c r="F31" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="G31" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ tag_type: 'sake', tag: 'garyubai', search_word: '臥龍梅', name: '臥龍梅', land_of_origin: '静岡県' },</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>curl -o garyubai.jpg http://www.sasas.jp/goods_image/A3628_I1.jpg</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
       <c r="B32" t="s">
         <v>59</v>
       </c>
@@ -2028,14 +2154,18 @@
         <v>147</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G32" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ tag_type: 'sake', tag: 'kuheiji', search_word: '醸し人九平次', name: '醸し人九平次', land_of_origin: '愛知県' },</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H32" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>curl -o kuheiji.jpg http://kuheiji.co.jp/brand/img/img125u81353_1.jpg</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
       <c r="B34" s="2" t="s">
         <v>61</v>
       </c>
@@ -2044,7 +2174,7 @@
         <v>## 近畿地方</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8">
       <c r="B35" t="s">
         <v>62</v>
       </c>
@@ -2055,14 +2185,18 @@
         <v>149</v>
       </c>
       <c r="F35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G35" s="1" t="str">
-        <f t="shared" ref="G35:G41" si="3">"{ tag_type: 'sake', tag: '"&amp;D35&amp;"', search_word: '"&amp;C35&amp;"', name: '"&amp;C35&amp;"', land_of_origin: '"&amp;B35&amp;"' },"</f>
+        <f t="shared" ref="G35:G41" si="6">"{ tag_type: 'sake', tag: '"&amp;D35&amp;"', search_word: '"&amp;C35&amp;"', name: '"&amp;C35&amp;"', land_of_origin: '"&amp;B35&amp;"' },"</f>
         <v>{ tag_type: 'sake', tag: 'mienishiki', search_word: '三重錦', name: '三重錦', land_of_origin: '三重県' },</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H35" s="1" t="str">
+        <f t="shared" ref="H35:H41" si="7">"curl -o "&amp;D35&amp;".jpg "&amp;F35</f>
+        <v>curl -o mienishiki.jpg http://syusendo.ir.shopserve.jp/pic-labo/mienisiki_04.jpg</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
       <c r="B36" t="s">
         <v>64</v>
       </c>
@@ -2076,14 +2210,18 @@
         <v>151</v>
       </c>
       <c r="F36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G36" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>{ tag_type: 'sake', tag: 'daijiro', search_word: '大治郎', name: '大治郎', land_of_origin: '滋賀県' },</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H36" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>curl -o daijiro.jpg http://members.e-omi.ne.jp/eo4224395/shop/img/019-1.jpg</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
       <c r="B37" t="s">
         <v>66</v>
       </c>
@@ -2097,14 +2235,18 @@
         <v>152</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G37" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>{ tag_type: 'sake', tag: 'tamanohikari', search_word: '玉乃光', name: '玉乃光', land_of_origin: '京都府' },</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H37" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>curl -o tamanohikari.jpg http://www.emono1.jp/img/nandai/20120106144623_img1_75.jpg</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
       <c r="B38" t="s">
         <v>68</v>
       </c>
@@ -2115,14 +2257,18 @@
         <v>154</v>
       </c>
       <c r="F38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G38" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>{ tag_type: 'sake', tag: 'akishika', search_word: '秋鹿', name: '秋鹿', land_of_origin: '大阪府' },</v>
       </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H38" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>curl -o akishika.jpg http://723papa43.blog.ocn.ne.jp/blog/images/2013/04/14/img_1427.jpg</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
       <c r="B39" t="s">
         <v>70</v>
       </c>
@@ -2133,11 +2279,15 @@
         <v>155</v>
       </c>
       <c r="G39" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>{ tag_type: 'sake', tag: 'kenbishi', search_word: '剣菱', name: '剣菱', land_of_origin: '兵庫県' },</v>
       </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H39" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">curl -o kenbishi.jpg </v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
       <c r="B40" t="s">
         <v>72</v>
       </c>
@@ -2148,14 +2298,18 @@
         <v>156</v>
       </c>
       <c r="F40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G40" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>{ tag_type: 'sake', tag: 'kazenomori', search_word: '風の森', name: '風の森', land_of_origin: '奈良県' },</v>
       </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H40" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>curl -o kazenomori.jpg http://www.abetaya.com/hp/yutyou/kaze01.JPG</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
       <c r="B41" t="s">
         <v>74</v>
       </c>
@@ -2169,14 +2323,18 @@
         <v>158</v>
       </c>
       <c r="F41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G41" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>{ tag_type: 'sake', tag: 'kuroushi', search_word: '黒牛', name: '黒牛', land_of_origin: '和歌山県' },</v>
       </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H41" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>curl -o kuroushi.jpg http://www.emono1.jp/img/nandai/20120106143130_img1_30.jpg</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
       <c r="B43" s="2" t="s">
         <v>76</v>
       </c>
@@ -2185,7 +2343,7 @@
         <v>## 中国地方</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8">
       <c r="B44" t="s">
         <v>77</v>
       </c>
@@ -2199,14 +2357,18 @@
         <v>159</v>
       </c>
       <c r="F44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G44" s="1" t="str">
-        <f t="shared" ref="G44:G48" si="4">"{ tag_type: 'sake', tag: '"&amp;D44&amp;"', search_word: '"&amp;C44&amp;"', name: '"&amp;C44&amp;"', land_of_origin: '"&amp;B44&amp;"' },"</f>
+        <f t="shared" ref="G44:G48" si="8">"{ tag_type: 'sake', tag: '"&amp;D44&amp;"', search_word: '"&amp;C44&amp;"', name: '"&amp;C44&amp;"', land_of_origin: '"&amp;B44&amp;"' },"</f>
         <v>{ tag_type: 'sake', tag: 'takaisami', search_word: '鷹勇', name: '鷹勇', land_of_origin: '鳥取県' },</v>
       </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H44" s="1" t="str">
+        <f t="shared" ref="H44:H48" si="9">"curl -o "&amp;D44&amp;".jpg "&amp;F44</f>
+        <v>curl -o takaisami.jpg http://takaisami.co.jp/files/content_type/type100/74/p/201303100025271946.jpg</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
       <c r="B45" t="s">
         <v>79</v>
       </c>
@@ -2220,14 +2382,18 @@
         <v>161</v>
       </c>
       <c r="F45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G45" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{ tag_type: 'sake', tag: 'rihaku', search_word: '李白', name: '李白', land_of_origin: '島根県' },</v>
       </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H45" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>curl -o rihaku.jpg http://www.sasas.jp/goods_image/A3484_I3.jpg</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
       <c r="B46" t="s">
         <v>81</v>
       </c>
@@ -2241,14 +2407,18 @@
         <v>163</v>
       </c>
       <c r="F46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G46" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{ tag_type: 'sake', tag: 'sakehitosuji', search_word: '酒一筋', name: '酒一筋', land_of_origin: '岡山県' },</v>
       </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H46" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>curl -o sakehitosuji.jpg http://shop.gnavi.co.jp/iimg/s-/s-hisamoto/img/157858/goodsimage157858.jpg</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
       <c r="B47" t="s">
         <v>83</v>
       </c>
@@ -2259,14 +2429,18 @@
         <v>165</v>
       </c>
       <c r="F47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G47" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{ tag_type: 'sake', tag: 'taketsuru', search_word: '竹鶴', name: '竹鶴', land_of_origin: '広島県' },</v>
       </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H47" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>curl -o taketsuru.jpg http://thumbnail.image.rakuten.co.jp/@0_mall/skysake/cabinet/01022418/nihonsyu-t/taketuru/img62252942.jpg</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
       <c r="B48" t="s">
         <v>85</v>
       </c>
@@ -2280,11 +2454,15 @@
         <v>166</v>
       </c>
       <c r="G48" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{ tag_type: 'sake', tag: 'dassai', search_word: '獺祭', name: '獺祭', land_of_origin: '山口県' },</v>
       </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H48" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">curl -o dassai.jpg </v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
       <c r="B50" s="2" t="s">
         <v>87</v>
       </c>
@@ -2293,7 +2471,7 @@
         <v>## 四国地方</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:8">
       <c r="B51" t="s">
         <v>88</v>
       </c>
@@ -2307,14 +2485,18 @@
         <v>168</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G51" s="1" t="str">
-        <f t="shared" ref="G51:G54" si="5">"{ tag_type: 'sake', tag: '"&amp;D51&amp;"', search_word: '"&amp;C51&amp;"', name: '"&amp;C51&amp;"', land_of_origin: '"&amp;B51&amp;"' },"</f>
+        <f t="shared" ref="G51:G54" si="10">"{ tag_type: 'sake', tag: '"&amp;D51&amp;"', search_word: '"&amp;C51&amp;"', name: '"&amp;C51&amp;"', land_of_origin: '"&amp;B51&amp;"' },"</f>
         <v>{ tag_type: 'sake', tag: 'miyoshikiku', search_word: '三芳菊', name: '三芳菊', land_of_origin: '徳島県' },</v>
       </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H51" s="1" t="str">
+        <f t="shared" ref="H51:H54" si="11">"curl -o "&amp;D51&amp;".jpg "&amp;F51</f>
+        <v>curl -o miyoshikiku.jpg http://www1.ttcn.ne.jp/kamasuya/PPC/miyosi-ws25.jpg</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
       <c r="B52" t="s">
         <v>90</v>
       </c>
@@ -2325,14 +2507,18 @@
         <v>170</v>
       </c>
       <c r="F52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G52" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>{ tag_type: 'sake', tag: 'yorokobigaijin', search_word: '悦凱陣', name: '悦凱陣', land_of_origin: '香川県' },</v>
       </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H52" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>curl -o yorokobigaijin.jpg http://pds2.exblog.jp/pds/1/201112/31/38/e0214638_1330276.jpg</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
       <c r="B53" t="s">
         <v>92</v>
       </c>
@@ -2346,14 +2532,18 @@
         <v>171</v>
       </c>
       <c r="F53" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G53" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>{ tag_type: 'sake', tag: 'ishizuchi', search_word: '石鎚', name: '石鎚', land_of_origin: '愛媛県' },</v>
       </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H53" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>curl -o ishizuchi.jpg http://www.emono1.jp/img/kamadas/20111205164023_img1_43.jpg</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
       <c r="B54" t="s">
         <v>94</v>
       </c>
@@ -2364,14 +2554,18 @@
         <v>173</v>
       </c>
       <c r="F54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G54" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>{ tag_type: 'sake', tag: 'minami', search_word: '南', name: '南', land_of_origin: '高知県' },</v>
       </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H54" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>curl -o minami.jpg http://thumbnail.image.rakuten.co.jp/@0_mall/sakesakura/cabinet/nkoku/minami_jg1800.jpg</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
       <c r="B56" s="2" t="s">
         <v>96</v>
       </c>
@@ -2380,7 +2574,7 @@
         <v>## 九州地方</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:8">
       <c r="B57" t="s">
         <v>97</v>
       </c>
@@ -2391,14 +2585,18 @@
         <v>174</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G57" s="1" t="str">
-        <f t="shared" ref="G57:G64" si="6">"{ tag_type: 'sake', tag: '"&amp;D57&amp;"', search_word: '"&amp;C57&amp;"', name: '"&amp;C57&amp;"', land_of_origin: '"&amp;B57&amp;"' },"</f>
+        <f t="shared" ref="G57:G64" si="12">"{ tag_type: 'sake', tag: '"&amp;D57&amp;"', search_word: '"&amp;C57&amp;"', name: '"&amp;C57&amp;"', land_of_origin: '"&amp;B57&amp;"' },"</f>
         <v>{ tag_type: 'sake', tag: 'niwanouguisu', search_word: '庭のうぐいす', name: '庭のうぐいす', land_of_origin: '福岡県' },</v>
       </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H57" s="1" t="str">
+        <f t="shared" ref="H57:H64" si="13">"curl -o "&amp;D57&amp;".jpg "&amp;F57</f>
+        <v>curl -o niwanouguisu.jpg http://www.miyamizu.jp/site_data/cabinet/00002844_photo1.jpg</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
       <c r="B58" t="s">
         <v>99</v>
       </c>
@@ -2412,14 +2610,18 @@
         <v>176</v>
       </c>
       <c r="F58" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G58" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>{ tag_type: 'sake', tag: 'azumaichi', search_word: '東一', name: '東一', land_of_origin: '佐賀県' },</v>
       </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H58" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>curl -o azumaichi.jpg http://www.sakenomise.com/uploads/%E6%9D%B1%E4%B8%80%E3%80%80%E7%B4%94%E5%90%9F%E3%80%80%EF%BD%97%EF%BD%85%EF%BD%82%E3%80%80.jpg</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
       <c r="B59" t="s">
         <v>101</v>
       </c>
@@ -2433,14 +2635,18 @@
         <v>177</v>
       </c>
       <c r="F59" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G59" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>{ tag_type: 'sake', tag: '64sake', search_word: '六十餘洲', name: '六十餘洲', land_of_origin: '長崎県' },</v>
       </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H59" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>curl -o 64sake.jpg http://www.64sake.com/img/item/page1_03.jpg</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
       <c r="B60" t="s">
         <v>103</v>
       </c>
@@ -2451,14 +2657,18 @@
         <v>179</v>
       </c>
       <c r="F60" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G60" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>{ tag_type: 'sake', tag: 'reizan', search_word: 'れいざん', name: 'れいざん', land_of_origin: '熊本県' },</v>
       </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H60" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>curl -o reizan.jpg http://thumbnail.image.rakuten.co.jp/@0_mall/kenkocom/cabinet/e063/e063376h_l.jpg</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
       <c r="B61" t="s">
         <v>105</v>
       </c>
@@ -2472,14 +2682,18 @@
         <v>180</v>
       </c>
       <c r="F61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G61" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>{ tag_type: 'sake', tag: 'takakiya', search_word: '鷹来屋', name: '鷹来屋', land_of_origin: '大分県' },</v>
       </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H61" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>curl -o takakiya.jpg http://www.takakiya.co.jp/sake_s/img/junmaidaiginjo.jpg</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
       <c r="B62" t="s">
         <v>107</v>
       </c>
@@ -2490,14 +2704,18 @@
         <v>182</v>
       </c>
       <c r="F62" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G62" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>{ tag_type: 'sake', tag: 'yumenonakamade', search_word: '夢の中まで', name: '夢の中まで', land_of_origin: '宮崎県' },</v>
       </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H62" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>curl -o yumenonakamade.jpg http://ic4-a.dena.ne.jp/mi/gr/115/imgr-a.dena.ne.jp/exrb/cb/7/7045879/8/mb/191755272_1.jpg</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
       <c r="B63" t="s">
         <v>109</v>
       </c>
@@ -2508,14 +2726,18 @@
         <v>183</v>
       </c>
       <c r="F63" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G63" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>{ tag_type: 'sake', tag: 'kojyu', search_word: '幸寿', name: '幸寿', land_of_origin: '鹿児島県' },</v>
       </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H63" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>curl -o kojyu.jpg http://www.yukinosake.com/image/label/46-kojujunmai.jpg</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
       <c r="B64" t="s">
         <v>111</v>
       </c>
@@ -2526,11 +2748,15 @@
         <v>184</v>
       </c>
       <c r="F64" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G64" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>{ tag_type: 'sake', tag: 'reimei', search_word: '黎明', name: '黎明', land_of_origin: '沖縄県' },</v>
+      </c>
+      <c r="H64" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>curl -o reimei.jpg http://thumbnail.image.rakuten.co.jp/@0_mall/haimurubushi/cabinet/01870722/img57822660.jpg</v>
       </c>
     </row>
   </sheetData>
@@ -2541,9 +2767,10 @@
     <hyperlink ref="F37" r:id="rId3"/>
     <hyperlink ref="F51" r:id="rId4"/>
     <hyperlink ref="F57" r:id="rId5"/>
+    <hyperlink ref="F31" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/sake.xlsx
+++ b/sake.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="234">
   <si>
     <t>## 北海道地方</t>
   </si>
@@ -643,10 +643,6 @@
   </si>
   <si>
     <t>## 関東地方</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>seeds.rb</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -795,6 +791,18 @@
   </si>
   <si>
     <t>http://www.sasas.jp/goods_image/A3628_I1.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>keyword</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>search_condition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sake</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -870,7 +878,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="154">
+  <cellStyleXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1013,6 +1021,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1033,7 +1065,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="141"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="154">
+  <cellStyles count="178">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -1188,6 +1220,30 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="151" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="177" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1521,7 +1577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H64"/>
+  <dimension ref="B2:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
@@ -1532,9 +1588,10 @@
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="6" width="15.5" customWidth="1"/>
+    <col min="8" max="9" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:10">
       <c r="B2" s="4" t="s">
         <v>113</v>
       </c>
@@ -1551,13 +1608,19 @@
         <v>116</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8">
+        <v>232</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1566,7 +1629,7 @@
         <v>## 北海道地方</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:10">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -1583,15 +1646,23 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f>"{ tag_type: 'sake', tag: '"&amp;D4&amp;"', search_word: '"&amp;C4&amp;"', name: '"&amp;C4&amp;"', land_of_origin: '"&amp;B4&amp;"' },"</f>
-        <v>{ tag_type: 'sake', tag: 'kunimare', search_word: '国稀', name: '国稀', land_of_origin: '北海道' },</v>
+        <f>"{ tag_type: 'sake', tag: '"&amp;D4&amp;"', name: '"&amp;C4&amp;"', image_url: '"&amp;D4&amp;".jpg' },"</f>
+        <v>{ tag_type: 'sake', tag: 'kunimare', name: '国稀', image_url: 'kunimare.jpg' },</v>
       </c>
       <c r="H4" s="1" t="str">
+        <f>"{ search_word: '"&amp;C4&amp;"', tag: '"&amp;D4&amp;"' },"</f>
+        <v>{ search_word: '国稀', tag: 'kunimare' },</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f>"{ land_of_origin: '"&amp;B4&amp;"', tag: '"&amp;D4&amp;"' },"</f>
+        <v>{ land_of_origin: '北海道', tag: 'kunimare' },</v>
+      </c>
+      <c r="J4" s="1" t="str">
         <f>"curl -o "&amp;D4&amp;".jpg "&amp;F4</f>
         <v>curl -o kunimare.jpg http://thumbnail.image.rakuten.co.jp/@0_mall/kadenshop/cabinet/wein/tokubetuzyunmaisyu.jpg</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:10">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1600,7 +1671,7 @@
         <v>## 東北地方</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:10">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -1617,15 +1688,23 @@
         <v>8</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f t="shared" ref="G7:G12" si="0">"{ tag_type: 'sake', tag: '"&amp;D7&amp;"', search_word: '"&amp;C7&amp;"', name: '"&amp;C7&amp;"', land_of_origin: '"&amp;B7&amp;"' },"</f>
-        <v>{ tag_type: 'sake', tag: 'densyu', search_word: '田酒', name: '田酒', land_of_origin: '青森県' },</v>
+        <f t="shared" ref="G7:G12" si="0">"{ tag_type: 'sake', tag: '"&amp;D7&amp;"', name: '"&amp;C7&amp;"', image_url: '"&amp;D7&amp;".jpg' },"</f>
+        <v>{ tag_type: 'sake', tag: 'densyu', name: '田酒', image_url: 'densyu.jpg' },</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f t="shared" ref="H7:H12" si="1">"curl -o "&amp;D7&amp;".jpg "&amp;F7</f>
+        <f t="shared" ref="H7:H12" si="1">"{ search_word: '"&amp;C7&amp;"', tag: '"&amp;D7&amp;"' },"</f>
+        <v>{ search_word: '田酒', tag: 'densyu' },</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" ref="I7:I12" si="2">"{ land_of_origin: '"&amp;B7&amp;"', tag: '"&amp;D7&amp;"' },"</f>
+        <v>{ land_of_origin: '青森県', tag: 'densyu' },</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f t="shared" ref="J7:J12" si="3">"curl -o "&amp;D7&amp;".jpg "&amp;F7</f>
         <v>curl -o densyu.jpg http://www.densyu.co.jp/_src/sc1141/web_93c8ef0_8f8395c491e58be18ff8_93l95r8ee6_1800ml817b94a07099.jpg</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:10">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -1643,14 +1722,22 @@
       </c>
       <c r="G8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{ tag_type: 'sake', tag: 'nanbubijin', search_word: '南部美人', name: '南部美人', land_of_origin: '岩手県' },</v>
+        <v>{ tag_type: 'sake', tag: 'nanbubijin', name: '南部美人', image_url: 'nanbubijin.jpg' },</v>
       </c>
       <c r="H8" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>{ search_word: '南部美人', tag: 'nanbubijin' },</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{ land_of_origin: '岩手県', tag: 'nanbubijin' },</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>curl -o nanbubijin.jpg http://www.nanbubijin.co.jp/wp/wp-content/uploads/2014/01/jyunmai-daiginjyou_item_img.png</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:10">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -1668,14 +1755,22 @@
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{ tag_type: 'sake', tag: 'urakasumi', search_word: '浦霞', name: '浦霞', land_of_origin: '宮城県' },</v>
+        <v>{ tag_type: 'sake', tag: 'urakasumi', name: '浦霞', image_url: 'urakasumi.jpg' },</v>
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>{ search_word: '浦霞', tag: 'urakasumi' },</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{ land_of_origin: '宮城県', tag: 'urakasumi' },</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>curl -o urakasumi.jpg http://www.urakasumi.com/pic/daigin720.jpg</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:10">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -1693,14 +1788,22 @@
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{ tag_type: 'sake', tag: 'shirataki', search_word: '白瀑', name: '白瀑', land_of_origin: '秋田県' },</v>
+        <v>{ tag_type: 'sake', tag: 'shirataki', name: '白瀑', image_url: 'shirataki.jpg' },</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>{ search_word: '白瀑', tag: 'shirataki' },</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{ land_of_origin: '秋田県', tag: 'shirataki' },</v>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>curl -o shirataki.jpg http://thumbnail.image.rakuten.co.jp/@0_mall/sakesakura/cabinet/nhokai/shirataki.jpg</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:10">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1718,14 +1821,22 @@
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{ tag_type: 'sake', tag: 'juyondai', search_word: '十四代', name: '十四代', land_of_origin: '山形県' },</v>
+        <v>{ tag_type: 'sake', tag: 'juyondai', name: '十四代', image_url: 'juyondai.jpg' },</v>
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>{ search_word: '十四代', tag: 'juyondai' },</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{ land_of_origin: '山形県', tag: 'juyondai' },</v>
+      </c>
+      <c r="J11" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>curl -o juyondai.jpg http://www.yukinosake.com/image/sake/juyondaijunmaidaiginjoryusen.jpg</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:10">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -1743,14 +1854,22 @@
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{ tag_type: 'sake', tag: 'hiroki', search_word: '飛露喜', name: '飛露喜', land_of_origin: '福島県' },</v>
+        <v>{ tag_type: 'sake', tag: 'hiroki', name: '飛露喜', image_url: 'hiroki.jpg' },</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>{ search_word: '飛露喜', tag: 'hiroki' },</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{ land_of_origin: '福島県', tag: 'hiroki' },</v>
+      </c>
+      <c r="J12" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>curl -o hiroki.jpg http://shopping.c.yimg.jp/lib/okadayasaketen/hirotm1.jpg</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:10">
       <c r="B14" s="2" t="s">
         <v>185</v>
       </c>
@@ -1759,7 +1878,7 @@
         <v>## 関東地方</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:10">
       <c r="B15" t="s">
         <v>29</v>
       </c>
@@ -1770,21 +1889,29 @@
         <v>126</v>
       </c>
       <c r="E15" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15" t="s">
         <v>187</v>
       </c>
-      <c r="F15" t="s">
-        <v>188</v>
-      </c>
       <c r="G15" s="1" t="str">
-        <f t="shared" ref="G15:G21" si="2">"{ tag_type: 'sake', tag: '"&amp;D15&amp;"', search_word: '"&amp;C15&amp;"', name: '"&amp;C15&amp;"', land_of_origin: '"&amp;B15&amp;"' },"</f>
-        <v>{ tag_type: 'sake', tag: 'satonohomare', search_word: '郷乃誉', name: '郷乃誉', land_of_origin: '茨城県' },</v>
+        <f t="shared" ref="G15:G21" si="4">"{ tag_type: 'sake', tag: '"&amp;D15&amp;"', name: '"&amp;C15&amp;"', image_url: '"&amp;D15&amp;".jpg' },"</f>
+        <v>{ tag_type: 'sake', tag: 'satonohomare', name: '郷乃誉', image_url: 'satonohomare.jpg' },</v>
       </c>
       <c r="H15" s="1" t="str">
-        <f t="shared" ref="H15:H21" si="3">"curl -o "&amp;D15&amp;".jpg "&amp;F15</f>
+        <f t="shared" ref="H15:H21" si="5">"{ search_word: '"&amp;C15&amp;"', tag: '"&amp;D15&amp;"' },"</f>
+        <v>{ search_word: '郷乃誉', tag: 'satonohomare' },</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f t="shared" ref="I15:I21" si="6">"{ land_of_origin: '"&amp;B15&amp;"', tag: '"&amp;D15&amp;"' },"</f>
+        <v>{ land_of_origin: '茨城県', tag: 'satonohomare' },</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f t="shared" ref="J15:J21" si="7">"curl -o "&amp;D15&amp;".jpg "&amp;F15</f>
         <v>curl -o satonohomare.jpg http://www.rakuten.ne.jp/gold/sudohonke/shop/images/lBnr02.jpg</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:10">
       <c r="B16" t="s">
         <v>31</v>
       </c>
@@ -1795,21 +1922,29 @@
         <v>127</v>
       </c>
       <c r="E16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16" t="s">
         <v>189</v>
       </c>
-      <c r="F16" t="s">
-        <v>190</v>
-      </c>
       <c r="G16" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>{ tag_type: 'sake', tag: 'hououbiden', search_word: '鳳凰美田', name: '鳳凰美田', land_of_origin: '栃木県' },</v>
+        <f t="shared" si="4"/>
+        <v>{ tag_type: 'sake', tag: 'hououbiden', name: '鳳凰美田', image_url: 'hououbiden.jpg' },</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
+        <v>{ search_word: '鳳凰美田', tag: 'hououbiden' },</v>
+      </c>
+      <c r="I16" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>{ land_of_origin: '栃木県', tag: 'hououbiden' },</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>curl -o hououbiden.jpg http://www.yajima-jizake.co.jp/kuramoto/image/img0021.jpg</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:10">
       <c r="B17" t="s">
         <v>33</v>
       </c>
@@ -1820,21 +1955,29 @@
         <v>128</v>
       </c>
       <c r="E17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>{ tag_type: 'sake', tag: 'ozenoyukidoke', search_word: '尾瀬の雪どけ', name: '尾瀬の雪どけ', land_of_origin: '群馬県' },</v>
+        <f t="shared" si="4"/>
+        <v>{ tag_type: 'sake', tag: 'ozenoyukidoke', name: '尾瀬の雪どけ', image_url: 'ozenoyukidoke.jpg' },</v>
       </c>
       <c r="H17" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
+        <v>{ search_word: '尾瀬の雪どけ', tag: 'ozenoyukidoke' },</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>{ land_of_origin: '群馬県', tag: 'ozenoyukidoke' },</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>curl -o ozenoyukidoke.jpg http://www.iwaikotobuki.com/data/iwaikotobuki/_/70726f647563742f32303133313232365f3138313435372e6a7067003235300000660066.jpg</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:10">
       <c r="B18" t="s">
         <v>35</v>
       </c>
@@ -1845,21 +1988,29 @@
         <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>{ tag_type: 'sake', tag: 'shinkame', search_word: '神亀', name: '神亀', land_of_origin: '埼玉県' },</v>
+        <f t="shared" si="4"/>
+        <v>{ tag_type: 'sake', tag: 'shinkame', name: '神亀', image_url: 'shinkame.jpg' },</v>
       </c>
       <c r="H18" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
+        <v>{ search_word: '神亀', tag: 'shinkame' },</v>
+      </c>
+      <c r="I18" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>{ land_of_origin: '埼玉県', tag: 'shinkame' },</v>
+      </c>
+      <c r="J18" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>curl -o shinkame.jpg http://www.kanedai.com/co4/files/ssc_product/image/432_0_300.jpg</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:10">
       <c r="B19" t="s">
         <v>37</v>
       </c>
@@ -1870,15 +2021,23 @@
         <v>130</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>{ tag_type: 'sake', tag: 'goninnmusume', search_word: '五人娘', name: '五人娘', land_of_origin: '千葉県' },</v>
+        <f t="shared" si="4"/>
+        <v>{ tag_type: 'sake', tag: 'goninnmusume', name: '五人娘', image_url: 'goninnmusume.jpg' },</v>
       </c>
       <c r="H19" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
+        <v>{ search_word: '五人娘', tag: 'goninnmusume' },</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>{ land_of_origin: '千葉県', tag: 'goninnmusume' },</v>
+      </c>
+      <c r="J19" s="1" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve">curl -o goninnmusume.jpg </v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:10">
       <c r="B20" t="s">
         <v>39</v>
       </c>
@@ -1889,21 +2048,29 @@
         <v>131</v>
       </c>
       <c r="E20" t="s">
+        <v>192</v>
+      </c>
+      <c r="F20" t="s">
         <v>193</v>
       </c>
-      <c r="F20" t="s">
-        <v>194</v>
-      </c>
       <c r="G20" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>{ tag_type: 'sake', tag: 'sawanoi', search_word: '澤乃井', name: '澤乃井', land_of_origin: '東京都' },</v>
+        <f t="shared" si="4"/>
+        <v>{ tag_type: 'sake', tag: 'sawanoi', name: '澤乃井', image_url: 'sawanoi.jpg' },</v>
       </c>
       <c r="H20" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
+        <v>{ search_word: '澤乃井', tag: 'sawanoi' },</v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>{ land_of_origin: '東京都', tag: 'sawanoi' },</v>
+      </c>
+      <c r="J20" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>curl -o sawanoi.jpg https://www.iy-net.jp/sys_image/498/156/311/532/4/001_4981563115324.jpg</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:10">
       <c r="B21" t="s">
         <v>41</v>
       </c>
@@ -1914,24 +2081,32 @@
         <v>132</v>
       </c>
       <c r="E21" t="s">
+        <v>194</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="G21" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>{ tag_type: 'sake', tag: 'izumibashi', search_word: 'いづみ橋', name: 'いづみ橋', land_of_origin: '神奈川県' },</v>
+        <f t="shared" si="4"/>
+        <v>{ tag_type: 'sake', tag: 'izumibashi', name: 'いづみ橋', image_url: 'izumibashi.jpg' },</v>
       </c>
       <c r="H21" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
+        <v>{ search_word: 'いづみ橋', tag: 'izumibashi' },</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>{ land_of_origin: '神奈川県', tag: 'izumibashi' },</v>
+      </c>
+      <c r="J21" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>curl -o izumibashi.jpg http://izumibashi.com/wordpress/wp-content/uploads/product01.jpg</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:10">
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:10">
       <c r="B23" s="2" t="s">
         <v>43</v>
       </c>
@@ -1940,7 +2115,7 @@
         <v>## 中部地方</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:10">
       <c r="B24" t="s">
         <v>44</v>
       </c>
@@ -1951,21 +2126,29 @@
         <v>133</v>
       </c>
       <c r="E24" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" t="s">
         <v>197</v>
       </c>
-      <c r="F24" t="s">
-        <v>198</v>
-      </c>
       <c r="G24" s="1" t="str">
-        <f t="shared" ref="G24:G32" si="4">"{ tag_type: 'sake', tag: '"&amp;D24&amp;"', search_word: '"&amp;C24&amp;"', name: '"&amp;C24&amp;"', land_of_origin: '"&amp;B24&amp;"' },"</f>
-        <v>{ tag_type: 'sake', tag: 'kubota', search_word: '久保田', name: '久保田', land_of_origin: '新潟県' },</v>
+        <f t="shared" ref="G24:G32" si="8">"{ tag_type: 'sake', tag: '"&amp;D24&amp;"', name: '"&amp;C24&amp;"', image_url: '"&amp;D24&amp;".jpg' },"</f>
+        <v>{ tag_type: 'sake', tag: 'kubota', name: '久保田', image_url: 'kubota.jpg' },</v>
       </c>
       <c r="H24" s="1" t="str">
-        <f t="shared" ref="H24:H32" si="5">"curl -o "&amp;D24&amp;".jpg "&amp;F24</f>
+        <f t="shared" ref="H24:H32" si="9">"{ search_word: '"&amp;C24&amp;"', tag: '"&amp;D24&amp;"' },"</f>
+        <v>{ search_word: '久保田', tag: 'kubota' },</v>
+      </c>
+      <c r="I24" s="1" t="str">
+        <f t="shared" ref="I24:I32" si="10">"{ land_of_origin: '"&amp;B24&amp;"', tag: '"&amp;D24&amp;"' },"</f>
+        <v>{ land_of_origin: '新潟県', tag: 'kubota' },</v>
+      </c>
+      <c r="J24" s="1" t="str">
+        <f t="shared" ref="J24:J32" si="11">"curl -o "&amp;D24&amp;".jpg "&amp;F24</f>
         <v>curl -o kubota.jpg http://www.asahi-shuzo.co.jp/brand/images/kubota_namagenshu.jpg</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:10">
       <c r="B25" t="s">
         <v>46</v>
       </c>
@@ -1979,18 +2162,26 @@
         <v>134</v>
       </c>
       <c r="F25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G25" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>{ tag_type: 'sake', tag: 'masuizumi', search_word: '満寿泉', name: '満寿泉', land_of_origin: '富山県' },</v>
+        <f t="shared" si="8"/>
+        <v>{ tag_type: 'sake', tag: 'masuizumi', name: '満寿泉', image_url: 'masuizumi.jpg' },</v>
       </c>
       <c r="H25" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
+        <v>{ search_word: '満寿泉', tag: 'masuizumi' },</v>
+      </c>
+      <c r="I25" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>{ land_of_origin: '富山県', tag: 'masuizumi' },</v>
+      </c>
+      <c r="J25" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>curl -o masuizumi.jpg http://www.masuizumi.co.jp/item/assets_c/2011/12/02-thumb-autox300-4.jpg</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:10">
       <c r="B26" t="s">
         <v>48</v>
       </c>
@@ -2001,21 +2192,29 @@
         <v>136</v>
       </c>
       <c r="E26" t="s">
+        <v>199</v>
+      </c>
+      <c r="F26" t="s">
         <v>200</v>
       </c>
-      <c r="F26" t="s">
-        <v>201</v>
-      </c>
       <c r="G26" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>{ tag_type: 'sake', tag: 'tengumai', search_word: '天狗舞', name: '天狗舞', land_of_origin: '石川県' },</v>
+        <f t="shared" si="8"/>
+        <v>{ tag_type: 'sake', tag: 'tengumai', name: '天狗舞', image_url: 'tengumai.jpg' },</v>
       </c>
       <c r="H26" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
+        <v>{ search_word: '天狗舞', tag: 'tengumai' },</v>
+      </c>
+      <c r="I26" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>{ land_of_origin: '石川県', tag: 'tengumai' },</v>
+      </c>
+      <c r="J26" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>curl -o tengumai.jpg http://www.tengumai.co.jp/images/product/ginjo/ph_ginjo_007.jpg</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:10">
       <c r="B27" t="s">
         <v>50</v>
       </c>
@@ -2026,21 +2225,29 @@
         <v>137</v>
       </c>
       <c r="E27" t="s">
+        <v>201</v>
+      </c>
+      <c r="F27" t="s">
         <v>202</v>
       </c>
-      <c r="F27" t="s">
-        <v>203</v>
-      </c>
       <c r="G27" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>{ tag_type: 'sake', tag: 'kokuryu', search_word: '黒龍', name: '黒龍', land_of_origin: '福井県' },</v>
+        <f t="shared" si="8"/>
+        <v>{ tag_type: 'sake', tag: 'kokuryu', name: '黒龍', image_url: 'kokuryu.jpg' },</v>
       </c>
       <c r="H27" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
+        <v>{ search_word: '黒龍', tag: 'kokuryu' },</v>
+      </c>
+      <c r="I27" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>{ land_of_origin: '福井県', tag: 'kokuryu' },</v>
+      </c>
+      <c r="J27" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>curl -o kokuryu.jpg http://www.kokuryu.co.jp/share/imgs/bottle_tsu1-720.jpg</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:10">
       <c r="B28" t="s">
         <v>52</v>
       </c>
@@ -2054,18 +2261,26 @@
         <v>143</v>
       </c>
       <c r="F28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G28" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>{ tag_type: 'sake', tag: 'shunnoten', search_word: '春鶯囀', name: '春鶯囀', land_of_origin: '山梨県' },</v>
+        <f t="shared" si="8"/>
+        <v>{ tag_type: 'sake', tag: 'shunnoten', name: '春鶯囀', image_url: 'shunnoten.jpg' },</v>
       </c>
       <c r="H28" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
+        <v>{ search_word: '春鶯囀', tag: 'shunnoten' },</v>
+      </c>
+      <c r="I28" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>{ land_of_origin: '山梨県', tag: 'shunnoten' },</v>
+      </c>
+      <c r="J28" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>curl -o shunnoten.jpg http://thumbnail.image.rakuten.co.jp/@0_mall/koshu-wine/cabinet/wine02/4997728000183.jpg</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:10">
       <c r="B29" t="s">
         <v>54</v>
       </c>
@@ -2079,18 +2294,26 @@
         <v>140</v>
       </c>
       <c r="F29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>{ tag_type: 'sake', tag: 'masumi', search_word: '真澄', name: '真澄', land_of_origin: '長野県' },</v>
+        <f t="shared" si="8"/>
+        <v>{ tag_type: 'sake', tag: 'masumi', name: '真澄', image_url: 'masumi.jpg' },</v>
       </c>
       <c r="H29" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
+        <v>{ search_word: '真澄', tag: 'masumi' },</v>
+      </c>
+      <c r="I29" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>{ land_of_origin: '長野県', tag: 'masumi' },</v>
+      </c>
+      <c r="J29" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>curl -o masumi.jpg http://www.masumi.jp/img_server/co_img1/sakemasumi/item/110_k01l.jpg</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:10">
       <c r="B30" t="s">
         <v>56</v>
       </c>
@@ -2104,18 +2327,26 @@
         <v>138</v>
       </c>
       <c r="F30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G30" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>{ tag_type: 'sake', tag: 'michisakari', search_word: '三千盛', name: '三千盛', land_of_origin: '岐阜県' },</v>
+        <f t="shared" si="8"/>
+        <v>{ tag_type: 'sake', tag: 'michisakari', name: '三千盛', image_url: 'michisakari.jpg' },</v>
       </c>
       <c r="H30" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
+        <v>{ search_word: '三千盛', tag: 'michisakari' },</v>
+      </c>
+      <c r="I30" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>{ land_of_origin: '岐阜県', tag: 'michisakari' },</v>
+      </c>
+      <c r="J30" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>curl -o michisakari.jpg http://www.michisakari.com/pdf/meijo720.jpg</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:10">
       <c r="B31" t="s">
         <v>57</v>
       </c>
@@ -2129,18 +2360,26 @@
         <v>145</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G31" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>{ tag_type: 'sake', tag: 'garyubai', search_word: '臥龍梅', name: '臥龍梅', land_of_origin: '静岡県' },</v>
+        <f t="shared" si="8"/>
+        <v>{ tag_type: 'sake', tag: 'garyubai', name: '臥龍梅', image_url: 'garyubai.jpg' },</v>
       </c>
       <c r="H31" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
+        <v>{ search_word: '臥龍梅', tag: 'garyubai' },</v>
+      </c>
+      <c r="I31" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>{ land_of_origin: '静岡県', tag: 'garyubai' },</v>
+      </c>
+      <c r="J31" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>curl -o garyubai.jpg http://www.sasas.jp/goods_image/A3628_I1.jpg</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:10">
       <c r="B32" t="s">
         <v>59</v>
       </c>
@@ -2154,18 +2393,26 @@
         <v>147</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G32" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>{ tag_type: 'sake', tag: 'kuheiji', search_word: '醸し人九平次', name: '醸し人九平次', land_of_origin: '愛知県' },</v>
+        <f t="shared" si="8"/>
+        <v>{ tag_type: 'sake', tag: 'kuheiji', name: '醸し人九平次', image_url: 'kuheiji.jpg' },</v>
       </c>
       <c r="H32" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
+        <v>{ search_word: '醸し人九平次', tag: 'kuheiji' },</v>
+      </c>
+      <c r="I32" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>{ land_of_origin: '愛知県', tag: 'kuheiji' },</v>
+      </c>
+      <c r="J32" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>curl -o kuheiji.jpg http://kuheiji.co.jp/brand/img/img125u81353_1.jpg</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:10">
       <c r="B34" s="2" t="s">
         <v>61</v>
       </c>
@@ -2174,7 +2421,7 @@
         <v>## 近畿地方</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:10">
       <c r="B35" t="s">
         <v>62</v>
       </c>
@@ -2185,18 +2432,26 @@
         <v>149</v>
       </c>
       <c r="F35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G35" s="1" t="str">
-        <f t="shared" ref="G35:G41" si="6">"{ tag_type: 'sake', tag: '"&amp;D35&amp;"', search_word: '"&amp;C35&amp;"', name: '"&amp;C35&amp;"', land_of_origin: '"&amp;B35&amp;"' },"</f>
-        <v>{ tag_type: 'sake', tag: 'mienishiki', search_word: '三重錦', name: '三重錦', land_of_origin: '三重県' },</v>
+        <f t="shared" ref="G35:G41" si="12">"{ tag_type: 'sake', tag: '"&amp;D35&amp;"', name: '"&amp;C35&amp;"', image_url: '"&amp;D35&amp;".jpg' },"</f>
+        <v>{ tag_type: 'sake', tag: 'mienishiki', name: '三重錦', image_url: 'mienishiki.jpg' },</v>
       </c>
       <c r="H35" s="1" t="str">
-        <f t="shared" ref="H35:H41" si="7">"curl -o "&amp;D35&amp;".jpg "&amp;F35</f>
+        <f t="shared" ref="H35:H41" si="13">"{ search_word: '"&amp;C35&amp;"', tag: '"&amp;D35&amp;"' },"</f>
+        <v>{ search_word: '三重錦', tag: 'mienishiki' },</v>
+      </c>
+      <c r="I35" s="1" t="str">
+        <f t="shared" ref="I35:I41" si="14">"{ land_of_origin: '"&amp;B35&amp;"', tag: '"&amp;D35&amp;"' },"</f>
+        <v>{ land_of_origin: '三重県', tag: 'mienishiki' },</v>
+      </c>
+      <c r="J35" s="1" t="str">
+        <f t="shared" ref="J35:J41" si="15">"curl -o "&amp;D35&amp;".jpg "&amp;F35</f>
         <v>curl -o mienishiki.jpg http://syusendo.ir.shopserve.jp/pic-labo/mienisiki_04.jpg</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:10">
       <c r="B36" t="s">
         <v>64</v>
       </c>
@@ -2210,18 +2465,26 @@
         <v>151</v>
       </c>
       <c r="F36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G36" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>{ tag_type: 'sake', tag: 'daijiro', search_word: '大治郎', name: '大治郎', land_of_origin: '滋賀県' },</v>
+        <f t="shared" si="12"/>
+        <v>{ tag_type: 'sake', tag: 'daijiro', name: '大治郎', image_url: 'daijiro.jpg' },</v>
       </c>
       <c r="H36" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
+        <v>{ search_word: '大治郎', tag: 'daijiro' },</v>
+      </c>
+      <c r="I36" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>{ land_of_origin: '滋賀県', tag: 'daijiro' },</v>
+      </c>
+      <c r="J36" s="1" t="str">
+        <f t="shared" si="15"/>
         <v>curl -o daijiro.jpg http://members.e-omi.ne.jp/eo4224395/shop/img/019-1.jpg</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:10">
       <c r="B37" t="s">
         <v>66</v>
       </c>
@@ -2235,18 +2498,26 @@
         <v>152</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G37" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>{ tag_type: 'sake', tag: 'tamanohikari', search_word: '玉乃光', name: '玉乃光', land_of_origin: '京都府' },</v>
+        <f t="shared" si="12"/>
+        <v>{ tag_type: 'sake', tag: 'tamanohikari', name: '玉乃光', image_url: 'tamanohikari.jpg' },</v>
       </c>
       <c r="H37" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
+        <v>{ search_word: '玉乃光', tag: 'tamanohikari' },</v>
+      </c>
+      <c r="I37" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>{ land_of_origin: '京都府', tag: 'tamanohikari' },</v>
+      </c>
+      <c r="J37" s="1" t="str">
+        <f t="shared" si="15"/>
         <v>curl -o tamanohikari.jpg http://www.emono1.jp/img/nandai/20120106144623_img1_75.jpg</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:10">
       <c r="B38" t="s">
         <v>68</v>
       </c>
@@ -2257,18 +2528,26 @@
         <v>154</v>
       </c>
       <c r="F38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G38" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>{ tag_type: 'sake', tag: 'akishika', search_word: '秋鹿', name: '秋鹿', land_of_origin: '大阪府' },</v>
+        <f t="shared" si="12"/>
+        <v>{ tag_type: 'sake', tag: 'akishika', name: '秋鹿', image_url: 'akishika.jpg' },</v>
       </c>
       <c r="H38" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
+        <v>{ search_word: '秋鹿', tag: 'akishika' },</v>
+      </c>
+      <c r="I38" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>{ land_of_origin: '大阪府', tag: 'akishika' },</v>
+      </c>
+      <c r="J38" s="1" t="str">
+        <f t="shared" si="15"/>
         <v>curl -o akishika.jpg http://723papa43.blog.ocn.ne.jp/blog/images/2013/04/14/img_1427.jpg</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:10">
       <c r="B39" t="s">
         <v>70</v>
       </c>
@@ -2279,15 +2558,23 @@
         <v>155</v>
       </c>
       <c r="G39" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>{ tag_type: 'sake', tag: 'kenbishi', search_word: '剣菱', name: '剣菱', land_of_origin: '兵庫県' },</v>
+        <f t="shared" si="12"/>
+        <v>{ tag_type: 'sake', tag: 'kenbishi', name: '剣菱', image_url: 'kenbishi.jpg' },</v>
       </c>
       <c r="H39" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
+        <v>{ search_word: '剣菱', tag: 'kenbishi' },</v>
+      </c>
+      <c r="I39" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>{ land_of_origin: '兵庫県', tag: 'kenbishi' },</v>
+      </c>
+      <c r="J39" s="1" t="str">
+        <f t="shared" si="15"/>
         <v xml:space="preserve">curl -o kenbishi.jpg </v>
       </c>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:10">
       <c r="B40" t="s">
         <v>72</v>
       </c>
@@ -2298,18 +2585,26 @@
         <v>156</v>
       </c>
       <c r="F40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G40" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>{ tag_type: 'sake', tag: 'kazenomori', search_word: '風の森', name: '風の森', land_of_origin: '奈良県' },</v>
+        <f t="shared" si="12"/>
+        <v>{ tag_type: 'sake', tag: 'kazenomori', name: '風の森', image_url: 'kazenomori.jpg' },</v>
       </c>
       <c r="H40" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
+        <v>{ search_word: '風の森', tag: 'kazenomori' },</v>
+      </c>
+      <c r="I40" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>{ land_of_origin: '奈良県', tag: 'kazenomori' },</v>
+      </c>
+      <c r="J40" s="1" t="str">
+        <f t="shared" si="15"/>
         <v>curl -o kazenomori.jpg http://www.abetaya.com/hp/yutyou/kaze01.JPG</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:10">
       <c r="B41" t="s">
         <v>74</v>
       </c>
@@ -2323,18 +2618,26 @@
         <v>158</v>
       </c>
       <c r="F41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G41" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>{ tag_type: 'sake', tag: 'kuroushi', search_word: '黒牛', name: '黒牛', land_of_origin: '和歌山県' },</v>
+        <f t="shared" si="12"/>
+        <v>{ tag_type: 'sake', tag: 'kuroushi', name: '黒牛', image_url: 'kuroushi.jpg' },</v>
       </c>
       <c r="H41" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
+        <v>{ search_word: '黒牛', tag: 'kuroushi' },</v>
+      </c>
+      <c r="I41" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>{ land_of_origin: '和歌山県', tag: 'kuroushi' },</v>
+      </c>
+      <c r="J41" s="1" t="str">
+        <f t="shared" si="15"/>
         <v>curl -o kuroushi.jpg http://www.emono1.jp/img/nandai/20120106143130_img1_30.jpg</v>
       </c>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:10">
       <c r="B43" s="2" t="s">
         <v>76</v>
       </c>
@@ -2343,7 +2646,7 @@
         <v>## 中国地方</v>
       </c>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:10">
       <c r="B44" t="s">
         <v>77</v>
       </c>
@@ -2357,18 +2660,26 @@
         <v>159</v>
       </c>
       <c r="F44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G44" s="1" t="str">
-        <f t="shared" ref="G44:G48" si="8">"{ tag_type: 'sake', tag: '"&amp;D44&amp;"', search_word: '"&amp;C44&amp;"', name: '"&amp;C44&amp;"', land_of_origin: '"&amp;B44&amp;"' },"</f>
-        <v>{ tag_type: 'sake', tag: 'takaisami', search_word: '鷹勇', name: '鷹勇', land_of_origin: '鳥取県' },</v>
+        <f t="shared" ref="G44:G48" si="16">"{ tag_type: 'sake', tag: '"&amp;D44&amp;"', name: '"&amp;C44&amp;"', image_url: '"&amp;D44&amp;".jpg' },"</f>
+        <v>{ tag_type: 'sake', tag: 'takaisami', name: '鷹勇', image_url: 'takaisami.jpg' },</v>
       </c>
       <c r="H44" s="1" t="str">
-        <f t="shared" ref="H44:H48" si="9">"curl -o "&amp;D44&amp;".jpg "&amp;F44</f>
+        <f t="shared" ref="H44:H48" si="17">"{ search_word: '"&amp;C44&amp;"', tag: '"&amp;D44&amp;"' },"</f>
+        <v>{ search_word: '鷹勇', tag: 'takaisami' },</v>
+      </c>
+      <c r="I44" s="1" t="str">
+        <f t="shared" ref="I44:I48" si="18">"{ land_of_origin: '"&amp;B44&amp;"', tag: '"&amp;D44&amp;"' },"</f>
+        <v>{ land_of_origin: '鳥取県', tag: 'takaisami' },</v>
+      </c>
+      <c r="J44" s="1" t="str">
+        <f t="shared" ref="J44:J48" si="19">"curl -o "&amp;D44&amp;".jpg "&amp;F44</f>
         <v>curl -o takaisami.jpg http://takaisami.co.jp/files/content_type/type100/74/p/201303100025271946.jpg</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:10">
       <c r="B45" t="s">
         <v>79</v>
       </c>
@@ -2382,18 +2693,26 @@
         <v>161</v>
       </c>
       <c r="F45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G45" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>{ tag_type: 'sake', tag: 'rihaku', search_word: '李白', name: '李白', land_of_origin: '島根県' },</v>
+        <f t="shared" si="16"/>
+        <v>{ tag_type: 'sake', tag: 'rihaku', name: '李白', image_url: 'rihaku.jpg' },</v>
       </c>
       <c r="H45" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
+        <v>{ search_word: '李白', tag: 'rihaku' },</v>
+      </c>
+      <c r="I45" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>{ land_of_origin: '島根県', tag: 'rihaku' },</v>
+      </c>
+      <c r="J45" s="1" t="str">
+        <f t="shared" si="19"/>
         <v>curl -o rihaku.jpg http://www.sasas.jp/goods_image/A3484_I3.jpg</v>
       </c>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:10">
       <c r="B46" t="s">
         <v>81</v>
       </c>
@@ -2407,18 +2726,26 @@
         <v>163</v>
       </c>
       <c r="F46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G46" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>{ tag_type: 'sake', tag: 'sakehitosuji', search_word: '酒一筋', name: '酒一筋', land_of_origin: '岡山県' },</v>
+        <f t="shared" si="16"/>
+        <v>{ tag_type: 'sake', tag: 'sakehitosuji', name: '酒一筋', image_url: 'sakehitosuji.jpg' },</v>
       </c>
       <c r="H46" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
+        <v>{ search_word: '酒一筋', tag: 'sakehitosuji' },</v>
+      </c>
+      <c r="I46" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>{ land_of_origin: '岡山県', tag: 'sakehitosuji' },</v>
+      </c>
+      <c r="J46" s="1" t="str">
+        <f t="shared" si="19"/>
         <v>curl -o sakehitosuji.jpg http://shop.gnavi.co.jp/iimg/s-/s-hisamoto/img/157858/goodsimage157858.jpg</v>
       </c>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:10">
       <c r="B47" t="s">
         <v>83</v>
       </c>
@@ -2429,18 +2756,26 @@
         <v>165</v>
       </c>
       <c r="F47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G47" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>{ tag_type: 'sake', tag: 'taketsuru', search_word: '竹鶴', name: '竹鶴', land_of_origin: '広島県' },</v>
+        <f t="shared" si="16"/>
+        <v>{ tag_type: 'sake', tag: 'taketsuru', name: '竹鶴', image_url: 'taketsuru.jpg' },</v>
       </c>
       <c r="H47" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
+        <v>{ search_word: '竹鶴', tag: 'taketsuru' },</v>
+      </c>
+      <c r="I47" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>{ land_of_origin: '広島県', tag: 'taketsuru' },</v>
+      </c>
+      <c r="J47" s="1" t="str">
+        <f t="shared" si="19"/>
         <v>curl -o taketsuru.jpg http://thumbnail.image.rakuten.co.jp/@0_mall/skysake/cabinet/01022418/nihonsyu-t/taketuru/img62252942.jpg</v>
       </c>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:10">
       <c r="B48" t="s">
         <v>85</v>
       </c>
@@ -2454,15 +2789,23 @@
         <v>166</v>
       </c>
       <c r="G48" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>{ tag_type: 'sake', tag: 'dassai', search_word: '獺祭', name: '獺祭', land_of_origin: '山口県' },</v>
+        <f t="shared" si="16"/>
+        <v>{ tag_type: 'sake', tag: 'dassai', name: '獺祭', image_url: 'dassai.jpg' },</v>
       </c>
       <c r="H48" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
+        <v>{ search_word: '獺祭', tag: 'dassai' },</v>
+      </c>
+      <c r="I48" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>{ land_of_origin: '山口県', tag: 'dassai' },</v>
+      </c>
+      <c r="J48" s="1" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">curl -o dassai.jpg </v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:10">
       <c r="B50" s="2" t="s">
         <v>87</v>
       </c>
@@ -2471,7 +2814,7 @@
         <v>## 四国地方</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:10">
       <c r="B51" t="s">
         <v>88</v>
       </c>
@@ -2485,18 +2828,26 @@
         <v>168</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G51" s="1" t="str">
-        <f t="shared" ref="G51:G54" si="10">"{ tag_type: 'sake', tag: '"&amp;D51&amp;"', search_word: '"&amp;C51&amp;"', name: '"&amp;C51&amp;"', land_of_origin: '"&amp;B51&amp;"' },"</f>
-        <v>{ tag_type: 'sake', tag: 'miyoshikiku', search_word: '三芳菊', name: '三芳菊', land_of_origin: '徳島県' },</v>
+        <f t="shared" ref="G51:G54" si="20">"{ tag_type: 'sake', tag: '"&amp;D51&amp;"', name: '"&amp;C51&amp;"', image_url: '"&amp;D51&amp;".jpg' },"</f>
+        <v>{ tag_type: 'sake', tag: 'miyoshikiku', name: '三芳菊', image_url: 'miyoshikiku.jpg' },</v>
       </c>
       <c r="H51" s="1" t="str">
-        <f t="shared" ref="H51:H54" si="11">"curl -o "&amp;D51&amp;".jpg "&amp;F51</f>
+        <f t="shared" ref="H51:H54" si="21">"{ search_word: '"&amp;C51&amp;"', tag: '"&amp;D51&amp;"' },"</f>
+        <v>{ search_word: '三芳菊', tag: 'miyoshikiku' },</v>
+      </c>
+      <c r="I51" s="1" t="str">
+        <f t="shared" ref="I51:I54" si="22">"{ land_of_origin: '"&amp;B51&amp;"', tag: '"&amp;D51&amp;"' },"</f>
+        <v>{ land_of_origin: '徳島県', tag: 'miyoshikiku' },</v>
+      </c>
+      <c r="J51" s="1" t="str">
+        <f t="shared" ref="J51:J54" si="23">"curl -o "&amp;D51&amp;".jpg "&amp;F51</f>
         <v>curl -o miyoshikiku.jpg http://www1.ttcn.ne.jp/kamasuya/PPC/miyosi-ws25.jpg</v>
       </c>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="2:10">
       <c r="B52" t="s">
         <v>90</v>
       </c>
@@ -2507,18 +2858,26 @@
         <v>170</v>
       </c>
       <c r="F52" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G52" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>{ tag_type: 'sake', tag: 'yorokobigaijin', search_word: '悦凱陣', name: '悦凱陣', land_of_origin: '香川県' },</v>
+        <f t="shared" si="20"/>
+        <v>{ tag_type: 'sake', tag: 'yorokobigaijin', name: '悦凱陣', image_url: 'yorokobigaijin.jpg' },</v>
       </c>
       <c r="H52" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
+        <v>{ search_word: '悦凱陣', tag: 'yorokobigaijin' },</v>
+      </c>
+      <c r="I52" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>{ land_of_origin: '香川県', tag: 'yorokobigaijin' },</v>
+      </c>
+      <c r="J52" s="1" t="str">
+        <f t="shared" si="23"/>
         <v>curl -o yorokobigaijin.jpg http://pds2.exblog.jp/pds/1/201112/31/38/e0214638_1330276.jpg</v>
       </c>
     </row>
-    <row r="53" spans="2:8">
+    <row r="53" spans="2:10">
       <c r="B53" t="s">
         <v>92</v>
       </c>
@@ -2532,18 +2891,26 @@
         <v>171</v>
       </c>
       <c r="F53" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G53" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>{ tag_type: 'sake', tag: 'ishizuchi', search_word: '石鎚', name: '石鎚', land_of_origin: '愛媛県' },</v>
+        <f t="shared" si="20"/>
+        <v>{ tag_type: 'sake', tag: 'ishizuchi', name: '石鎚', image_url: 'ishizuchi.jpg' },</v>
       </c>
       <c r="H53" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
+        <v>{ search_word: '石鎚', tag: 'ishizuchi' },</v>
+      </c>
+      <c r="I53" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>{ land_of_origin: '愛媛県', tag: 'ishizuchi' },</v>
+      </c>
+      <c r="J53" s="1" t="str">
+        <f t="shared" si="23"/>
         <v>curl -o ishizuchi.jpg http://www.emono1.jp/img/kamadas/20111205164023_img1_43.jpg</v>
       </c>
     </row>
-    <row r="54" spans="2:8">
+    <row r="54" spans="2:10">
       <c r="B54" t="s">
         <v>94</v>
       </c>
@@ -2554,18 +2921,26 @@
         <v>173</v>
       </c>
       <c r="F54" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G54" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>{ tag_type: 'sake', tag: 'minami', search_word: '南', name: '南', land_of_origin: '高知県' },</v>
+        <f t="shared" si="20"/>
+        <v>{ tag_type: 'sake', tag: 'minami', name: '南', image_url: 'minami.jpg' },</v>
       </c>
       <c r="H54" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
+        <v>{ search_word: '南', tag: 'minami' },</v>
+      </c>
+      <c r="I54" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>{ land_of_origin: '高知県', tag: 'minami' },</v>
+      </c>
+      <c r="J54" s="1" t="str">
+        <f t="shared" si="23"/>
         <v>curl -o minami.jpg http://thumbnail.image.rakuten.co.jp/@0_mall/sakesakura/cabinet/nkoku/minami_jg1800.jpg</v>
       </c>
     </row>
-    <row r="56" spans="2:8">
+    <row r="56" spans="2:10">
       <c r="B56" s="2" t="s">
         <v>96</v>
       </c>
@@ -2574,7 +2949,7 @@
         <v>## 九州地方</v>
       </c>
     </row>
-    <row r="57" spans="2:8">
+    <row r="57" spans="2:10">
       <c r="B57" t="s">
         <v>97</v>
       </c>
@@ -2585,18 +2960,26 @@
         <v>174</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G57" s="1" t="str">
-        <f t="shared" ref="G57:G64" si="12">"{ tag_type: 'sake', tag: '"&amp;D57&amp;"', search_word: '"&amp;C57&amp;"', name: '"&amp;C57&amp;"', land_of_origin: '"&amp;B57&amp;"' },"</f>
-        <v>{ tag_type: 'sake', tag: 'niwanouguisu', search_word: '庭のうぐいす', name: '庭のうぐいす', land_of_origin: '福岡県' },</v>
+        <f t="shared" ref="G57:G64" si="24">"{ tag_type: 'sake', tag: '"&amp;D57&amp;"', name: '"&amp;C57&amp;"', image_url: '"&amp;D57&amp;".jpg' },"</f>
+        <v>{ tag_type: 'sake', tag: 'niwanouguisu', name: '庭のうぐいす', image_url: 'niwanouguisu.jpg' },</v>
       </c>
       <c r="H57" s="1" t="str">
-        <f t="shared" ref="H57:H64" si="13">"curl -o "&amp;D57&amp;".jpg "&amp;F57</f>
+        <f t="shared" ref="H57:H64" si="25">"{ search_word: '"&amp;C57&amp;"', tag: '"&amp;D57&amp;"' },"</f>
+        <v>{ search_word: '庭のうぐいす', tag: 'niwanouguisu' },</v>
+      </c>
+      <c r="I57" s="1" t="str">
+        <f t="shared" ref="I57:I64" si="26">"{ land_of_origin: '"&amp;B57&amp;"', tag: '"&amp;D57&amp;"' },"</f>
+        <v>{ land_of_origin: '福岡県', tag: 'niwanouguisu' },</v>
+      </c>
+      <c r="J57" s="1" t="str">
+        <f t="shared" ref="J57:J64" si="27">"curl -o "&amp;D57&amp;".jpg "&amp;F57</f>
         <v>curl -o niwanouguisu.jpg http://www.miyamizu.jp/site_data/cabinet/00002844_photo1.jpg</v>
       </c>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="2:10">
       <c r="B58" t="s">
         <v>99</v>
       </c>
@@ -2610,18 +2993,26 @@
         <v>176</v>
       </c>
       <c r="F58" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G58" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>{ tag_type: 'sake', tag: 'azumaichi', search_word: '東一', name: '東一', land_of_origin: '佐賀県' },</v>
+        <f t="shared" si="24"/>
+        <v>{ tag_type: 'sake', tag: 'azumaichi', name: '東一', image_url: 'azumaichi.jpg' },</v>
       </c>
       <c r="H58" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
+        <v>{ search_word: '東一', tag: 'azumaichi' },</v>
+      </c>
+      <c r="I58" s="1" t="str">
+        <f t="shared" si="26"/>
+        <v>{ land_of_origin: '佐賀県', tag: 'azumaichi' },</v>
+      </c>
+      <c r="J58" s="1" t="str">
+        <f t="shared" si="27"/>
         <v>curl -o azumaichi.jpg http://www.sakenomise.com/uploads/%E6%9D%B1%E4%B8%80%E3%80%80%E7%B4%94%E5%90%9F%E3%80%80%EF%BD%97%EF%BD%85%EF%BD%82%E3%80%80.jpg</v>
       </c>
     </row>
-    <row r="59" spans="2:8">
+    <row r="59" spans="2:10">
       <c r="B59" t="s">
         <v>101</v>
       </c>
@@ -2635,18 +3026,26 @@
         <v>177</v>
       </c>
       <c r="F59" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G59" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>{ tag_type: 'sake', tag: '64sake', search_word: '六十餘洲', name: '六十餘洲', land_of_origin: '長崎県' },</v>
+        <f t="shared" si="24"/>
+        <v>{ tag_type: 'sake', tag: '64sake', name: '六十餘洲', image_url: '64sake.jpg' },</v>
       </c>
       <c r="H59" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
+        <v>{ search_word: '六十餘洲', tag: '64sake' },</v>
+      </c>
+      <c r="I59" s="1" t="str">
+        <f t="shared" si="26"/>
+        <v>{ land_of_origin: '長崎県', tag: '64sake' },</v>
+      </c>
+      <c r="J59" s="1" t="str">
+        <f t="shared" si="27"/>
         <v>curl -o 64sake.jpg http://www.64sake.com/img/item/page1_03.jpg</v>
       </c>
     </row>
-    <row r="60" spans="2:8">
+    <row r="60" spans="2:10">
       <c r="B60" t="s">
         <v>103</v>
       </c>
@@ -2657,18 +3056,26 @@
         <v>179</v>
       </c>
       <c r="F60" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G60" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>{ tag_type: 'sake', tag: 'reizan', search_word: 'れいざん', name: 'れいざん', land_of_origin: '熊本県' },</v>
+        <f t="shared" si="24"/>
+        <v>{ tag_type: 'sake', tag: 'reizan', name: 'れいざん', image_url: 'reizan.jpg' },</v>
       </c>
       <c r="H60" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
+        <v>{ search_word: 'れいざん', tag: 'reizan' },</v>
+      </c>
+      <c r="I60" s="1" t="str">
+        <f t="shared" si="26"/>
+        <v>{ land_of_origin: '熊本県', tag: 'reizan' },</v>
+      </c>
+      <c r="J60" s="1" t="str">
+        <f t="shared" si="27"/>
         <v>curl -o reizan.jpg http://thumbnail.image.rakuten.co.jp/@0_mall/kenkocom/cabinet/e063/e063376h_l.jpg</v>
       </c>
     </row>
-    <row r="61" spans="2:8">
+    <row r="61" spans="2:10">
       <c r="B61" t="s">
         <v>105</v>
       </c>
@@ -2682,18 +3089,26 @@
         <v>180</v>
       </c>
       <c r="F61" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G61" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>{ tag_type: 'sake', tag: 'takakiya', search_word: '鷹来屋', name: '鷹来屋', land_of_origin: '大分県' },</v>
+        <f t="shared" si="24"/>
+        <v>{ tag_type: 'sake', tag: 'takakiya', name: '鷹来屋', image_url: 'takakiya.jpg' },</v>
       </c>
       <c r="H61" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
+        <v>{ search_word: '鷹来屋', tag: 'takakiya' },</v>
+      </c>
+      <c r="I61" s="1" t="str">
+        <f t="shared" si="26"/>
+        <v>{ land_of_origin: '大分県', tag: 'takakiya' },</v>
+      </c>
+      <c r="J61" s="1" t="str">
+        <f t="shared" si="27"/>
         <v>curl -o takakiya.jpg http://www.takakiya.co.jp/sake_s/img/junmaidaiginjo.jpg</v>
       </c>
     </row>
-    <row r="62" spans="2:8">
+    <row r="62" spans="2:10">
       <c r="B62" t="s">
         <v>107</v>
       </c>
@@ -2704,18 +3119,26 @@
         <v>182</v>
       </c>
       <c r="F62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G62" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>{ tag_type: 'sake', tag: 'yumenonakamade', search_word: '夢の中まで', name: '夢の中まで', land_of_origin: '宮崎県' },</v>
+        <f t="shared" si="24"/>
+        <v>{ tag_type: 'sake', tag: 'yumenonakamade', name: '夢の中まで', image_url: 'yumenonakamade.jpg' },</v>
       </c>
       <c r="H62" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
+        <v>{ search_word: '夢の中まで', tag: 'yumenonakamade' },</v>
+      </c>
+      <c r="I62" s="1" t="str">
+        <f t="shared" si="26"/>
+        <v>{ land_of_origin: '宮崎県', tag: 'yumenonakamade' },</v>
+      </c>
+      <c r="J62" s="1" t="str">
+        <f t="shared" si="27"/>
         <v>curl -o yumenonakamade.jpg http://ic4-a.dena.ne.jp/mi/gr/115/imgr-a.dena.ne.jp/exrb/cb/7/7045879/8/mb/191755272_1.jpg</v>
       </c>
     </row>
-    <row r="63" spans="2:8">
+    <row r="63" spans="2:10">
       <c r="B63" t="s">
         <v>109</v>
       </c>
@@ -2726,18 +3149,26 @@
         <v>183</v>
       </c>
       <c r="F63" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G63" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>{ tag_type: 'sake', tag: 'kojyu', search_word: '幸寿', name: '幸寿', land_of_origin: '鹿児島県' },</v>
+        <f t="shared" si="24"/>
+        <v>{ tag_type: 'sake', tag: 'kojyu', name: '幸寿', image_url: 'kojyu.jpg' },</v>
       </c>
       <c r="H63" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
+        <v>{ search_word: '幸寿', tag: 'kojyu' },</v>
+      </c>
+      <c r="I63" s="1" t="str">
+        <f t="shared" si="26"/>
+        <v>{ land_of_origin: '鹿児島県', tag: 'kojyu' },</v>
+      </c>
+      <c r="J63" s="1" t="str">
+        <f t="shared" si="27"/>
         <v>curl -o kojyu.jpg http://www.yukinosake.com/image/label/46-kojujunmai.jpg</v>
       </c>
     </row>
-    <row r="64" spans="2:8">
+    <row r="64" spans="2:10">
       <c r="B64" t="s">
         <v>111</v>
       </c>
@@ -2748,14 +3179,22 @@
         <v>184</v>
       </c>
       <c r="F64" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G64" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>{ tag_type: 'sake', tag: 'reimei', search_word: '黎明', name: '黎明', land_of_origin: '沖縄県' },</v>
+        <f t="shared" si="24"/>
+        <v>{ tag_type: 'sake', tag: 'reimei', name: '黎明', image_url: 'reimei.jpg' },</v>
       </c>
       <c r="H64" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
+        <v>{ search_word: '黎明', tag: 'reimei' },</v>
+      </c>
+      <c r="I64" s="1" t="str">
+        <f t="shared" si="26"/>
+        <v>{ land_of_origin: '沖縄県', tag: 'reimei' },</v>
+      </c>
+      <c r="J64" s="1" t="str">
+        <f t="shared" si="27"/>
         <v>curl -o reimei.jpg http://thumbnail.image.rakuten.co.jp/@0_mall/haimurubushi/cabinet/01870722/img57822660.jpg</v>
       </c>
     </row>
